--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>621.2577294166026</v>
+        <v>797.3827814453113</v>
       </c>
       <c r="AB2" t="n">
-        <v>850.0322333444618</v>
+        <v>1091.014299619051</v>
       </c>
       <c r="AC2" t="n">
-        <v>768.9063500217981</v>
+        <v>986.8894261115947</v>
       </c>
       <c r="AD2" t="n">
-        <v>621257.7294166026</v>
+        <v>797382.7814453113</v>
       </c>
       <c r="AE2" t="n">
-        <v>850032.2333444618</v>
+        <v>1091014.299619051</v>
       </c>
       <c r="AF2" t="n">
         <v>4.649809127028479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>768906.350021798</v>
+        <v>986889.4261115948</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.138023311848</v>
+        <v>542.2531491811105</v>
       </c>
       <c r="AB3" t="n">
-        <v>568.0101580922806</v>
+        <v>741.9346812301713</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.8000658112162</v>
+        <v>671.1254765654281</v>
       </c>
       <c r="AD3" t="n">
-        <v>415138.0233118481</v>
+        <v>542253.1491811106</v>
       </c>
       <c r="AE3" t="n">
-        <v>568010.1580922806</v>
+        <v>741934.6812301714</v>
       </c>
       <c r="AF3" t="n">
         <v>6.425304210005057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.4212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>513800.0658112162</v>
+        <v>671125.4765654281</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.5368062806447</v>
+        <v>478.1432204467721</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.9848052833638</v>
+        <v>654.2166484054073</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.5988870247619</v>
+        <v>591.7791296804273</v>
       </c>
       <c r="AD4" t="n">
-        <v>370536.8062806447</v>
+        <v>478143.2204467721</v>
       </c>
       <c r="AE4" t="n">
-        <v>506984.8052833637</v>
+        <v>654216.6484054073</v>
       </c>
       <c r="AF4" t="n">
         <v>7.097234106602395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.11805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>458598.8870247619</v>
+        <v>591779.1296804274</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>339.0033705771732</v>
+        <v>446.6429391322243</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.8393673968738</v>
+        <v>611.1165738165112</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.5711891751562</v>
+        <v>552.7924657189609</v>
       </c>
       <c r="AD5" t="n">
-        <v>339003.3705771732</v>
+        <v>446642.9391322243</v>
       </c>
       <c r="AE5" t="n">
-        <v>463839.3673968738</v>
+        <v>611116.5738165112</v>
       </c>
       <c r="AF5" t="n">
         <v>7.479508653223564e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.98379629629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>419571.1891751562</v>
+        <v>552792.4657189609</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.6599038693808</v>
+        <v>430.4777967651599</v>
       </c>
       <c r="AB6" t="n">
-        <v>455.1599563932722</v>
+        <v>588.9987128741445</v>
       </c>
       <c r="AC6" t="n">
-        <v>411.7201289761085</v>
+        <v>532.7855023823208</v>
       </c>
       <c r="AD6" t="n">
-        <v>332659.9038693808</v>
+        <v>430477.7967651599</v>
       </c>
       <c r="AE6" t="n">
-        <v>455159.9563932722</v>
+        <v>588998.7128741445</v>
       </c>
       <c r="AF6" t="n">
         <v>7.705971403439014e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.37037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>411720.1289761085</v>
+        <v>532785.5023823208</v>
       </c>
     </row>
     <row r="7">
@@ -7257,28 +7257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>318.4060641613538</v>
+        <v>426.011467297624</v>
       </c>
       <c r="AB7" t="n">
-        <v>435.6572240697226</v>
+        <v>582.8876838561121</v>
       </c>
       <c r="AC7" t="n">
-        <v>394.0787100532618</v>
+        <v>527.2577013968864</v>
       </c>
       <c r="AD7" t="n">
-        <v>318406.0641613537</v>
+        <v>426011.467297624</v>
       </c>
       <c r="AE7" t="n">
-        <v>435657.2240697226</v>
+        <v>582887.6838561121</v>
       </c>
       <c r="AF7" t="n">
         <v>7.86422411571532e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.9537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>394078.7100532618</v>
+        <v>527257.7013968864</v>
       </c>
     </row>
     <row r="8">
@@ -7363,28 +7363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>315.9332886793991</v>
+        <v>413.8185013828826</v>
       </c>
       <c r="AB8" t="n">
-        <v>432.2738635641573</v>
+        <v>566.204729975871</v>
       </c>
       <c r="AC8" t="n">
-        <v>391.0182527257713</v>
+        <v>512.1669452203026</v>
       </c>
       <c r="AD8" t="n">
-        <v>315933.2886793991</v>
+        <v>413818.5013828826</v>
       </c>
       <c r="AE8" t="n">
-        <v>432273.8635641573</v>
+        <v>566204.729975871</v>
       </c>
       <c r="AF8" t="n">
         <v>7.953724364303462e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.7337962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>391018.2527257713</v>
+        <v>512166.9452203027</v>
       </c>
     </row>
     <row r="9">
@@ -7469,28 +7469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>313.4872838655781</v>
+        <v>411.3724965690616</v>
       </c>
       <c r="AB9" t="n">
-        <v>428.9271318677708</v>
+        <v>562.8579982794846</v>
       </c>
       <c r="AC9" t="n">
-        <v>387.9909284053206</v>
+        <v>509.1396208998519</v>
       </c>
       <c r="AD9" t="n">
-        <v>313487.2838655781</v>
+        <v>411372.4965690616</v>
       </c>
       <c r="AE9" t="n">
-        <v>428927.1318677708</v>
+        <v>562857.9982794846</v>
       </c>
       <c r="AF9" t="n">
         <v>8.043495825766111e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.51388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>387990.9284053206</v>
+        <v>509139.6208998519</v>
       </c>
     </row>
     <row r="10">
@@ -7575,28 +7575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>311.4032941859845</v>
+        <v>409.1870216629828</v>
       </c>
       <c r="AB10" t="n">
-        <v>426.075725249015</v>
+        <v>559.8677350966395</v>
       </c>
       <c r="AC10" t="n">
-        <v>385.4116560322844</v>
+        <v>506.4347442383169</v>
       </c>
       <c r="AD10" t="n">
-        <v>311403.2941859845</v>
+        <v>409187.0216629828</v>
       </c>
       <c r="AE10" t="n">
-        <v>426075.725249015</v>
+        <v>559867.7350966395</v>
       </c>
       <c r="AF10" t="n">
         <v>8.114824811762117e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.34027777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>385411.6560322844</v>
+        <v>506434.7442383168</v>
       </c>
     </row>
     <row r="11">
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>310.0461813195479</v>
+        <v>407.8299087965462</v>
       </c>
       <c r="AB11" t="n">
-        <v>424.2188635535623</v>
+        <v>558.0108734011867</v>
       </c>
       <c r="AC11" t="n">
-        <v>383.732010610924</v>
+        <v>504.7550988169564</v>
       </c>
       <c r="AD11" t="n">
-        <v>310046.1813195479</v>
+        <v>407829.9087965462</v>
       </c>
       <c r="AE11" t="n">
-        <v>424218.8635535623</v>
+        <v>558010.8734011867</v>
       </c>
       <c r="AF11" t="n">
         <v>8.149811272573845e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.25925925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>383732.010610924</v>
+        <v>504755.0988169564</v>
       </c>
     </row>
     <row r="12">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>308.3277815783545</v>
+        <v>396.3913186225661</v>
       </c>
       <c r="AB12" t="n">
-        <v>421.8676732172154</v>
+        <v>542.3600896901642</v>
       </c>
       <c r="AC12" t="n">
-        <v>381.6052145803617</v>
+        <v>490.5980039373009</v>
       </c>
       <c r="AD12" t="n">
-        <v>308327.7815783545</v>
+        <v>396391.3186225661</v>
       </c>
       <c r="AE12" t="n">
-        <v>421867.6732172155</v>
+        <v>542360.0896901642</v>
       </c>
       <c r="AF12" t="n">
         <v>8.216529639703188e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.09722222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>381605.2145803617</v>
+        <v>490598.0039373009</v>
       </c>
     </row>
     <row r="13">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>306.9323582127622</v>
+        <v>394.9958952569737</v>
       </c>
       <c r="AB13" t="n">
-        <v>419.9583934066779</v>
+        <v>540.4508098796266</v>
       </c>
       <c r="AC13" t="n">
-        <v>379.8781537552508</v>
+        <v>488.8709431121899</v>
       </c>
       <c r="AD13" t="n">
-        <v>306932.3582127622</v>
+        <v>394995.8952569737</v>
       </c>
       <c r="AE13" t="n">
-        <v>419958.3934066779</v>
+        <v>540450.8098796266</v>
       </c>
       <c r="AF13" t="n">
         <v>8.25761839019138e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.00462962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>379878.1537552507</v>
+        <v>488870.9431121899</v>
       </c>
     </row>
     <row r="14">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>295.922059750869</v>
+        <v>393.7731070355717</v>
       </c>
       <c r="AB14" t="n">
-        <v>404.8936173110293</v>
+        <v>538.7777370894954</v>
       </c>
       <c r="AC14" t="n">
-        <v>366.2511387466249</v>
+        <v>487.3575460409763</v>
       </c>
       <c r="AD14" t="n">
-        <v>295922.059750869</v>
+        <v>393773.1070355717</v>
       </c>
       <c r="AE14" t="n">
-        <v>404893.6173110293</v>
+        <v>538777.7370894954</v>
       </c>
       <c r="AF14" t="n">
         <v>8.28894347719723e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.93518518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>366251.1387466249</v>
+        <v>487357.5460409763</v>
       </c>
     </row>
     <row r="15">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>294.8164503578132</v>
+        <v>392.6674976425159</v>
       </c>
       <c r="AB15" t="n">
-        <v>403.3808737634064</v>
+        <v>537.2649935418724</v>
       </c>
       <c r="AC15" t="n">
-        <v>364.8827693200382</v>
+        <v>485.9891766143897</v>
       </c>
       <c r="AD15" t="n">
-        <v>294816.4503578132</v>
+        <v>392667.4976425159</v>
       </c>
       <c r="AE15" t="n">
-        <v>403380.8737634064</v>
+        <v>537264.9935418724</v>
       </c>
       <c r="AF15" t="n">
         <v>8.316607190397201e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.87731481481481</v>
       </c>
       <c r="AH15" t="n">
-        <v>364882.7693200382</v>
+        <v>485989.1766143897</v>
       </c>
     </row>
     <row r="16">
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>294.6256143320856</v>
+        <v>392.4766616167883</v>
       </c>
       <c r="AB16" t="n">
-        <v>403.1197634939146</v>
+        <v>537.0038832723807</v>
       </c>
       <c r="AC16" t="n">
-        <v>364.6465790481961</v>
+        <v>485.7529863425476</v>
       </c>
       <c r="AD16" t="n">
-        <v>294625.6143320856</v>
+        <v>392476.6616167883</v>
       </c>
       <c r="AE16" t="n">
-        <v>403119.7634939146</v>
+        <v>537003.8832723807</v>
       </c>
       <c r="AF16" t="n">
         <v>8.313623848777595e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.87731481481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>364646.5790481961</v>
+        <v>485752.9863425476</v>
       </c>
     </row>
     <row r="17">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>293.1903840090373</v>
+        <v>391.04143129374</v>
       </c>
       <c r="AB17" t="n">
-        <v>401.1560180480269</v>
+        <v>535.0401378264928</v>
       </c>
       <c r="AC17" t="n">
-        <v>362.8702507115298</v>
+        <v>483.9766580058812</v>
       </c>
       <c r="AD17" t="n">
-        <v>293190.3840090373</v>
+        <v>391041.43129374</v>
       </c>
       <c r="AE17" t="n">
-        <v>401156.0180480268</v>
+        <v>535040.1378264928</v>
       </c>
       <c r="AF17" t="n">
         <v>8.357560334448139e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.78472222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>362870.2507115298</v>
+        <v>483976.6580058812</v>
       </c>
     </row>
     <row r="18">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>292.7683202826343</v>
+        <v>390.619367567337</v>
       </c>
       <c r="AB18" t="n">
-        <v>400.5785318374247</v>
+        <v>534.4626516158908</v>
       </c>
       <c r="AC18" t="n">
-        <v>362.3478789743606</v>
+        <v>483.4542862687121</v>
       </c>
       <c r="AD18" t="n">
-        <v>292768.3202826343</v>
+        <v>390619.367567337</v>
       </c>
       <c r="AE18" t="n">
-        <v>400578.5318374247</v>
+        <v>534462.6516158908</v>
       </c>
       <c r="AF18" t="n">
         <v>8.35362774776775e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.78472222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>362347.8789743606</v>
+        <v>483454.2862687121</v>
       </c>
     </row>
     <row r="19">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>291.6209164750458</v>
+        <v>389.4719637597486</v>
       </c>
       <c r="AB19" t="n">
-        <v>399.0086033279989</v>
+        <v>532.8927231064648</v>
       </c>
       <c r="AC19" t="n">
-        <v>360.9277822384659</v>
+        <v>482.0341895328173</v>
       </c>
       <c r="AD19" t="n">
-        <v>291620.9164750458</v>
+        <v>389471.9637597486</v>
       </c>
       <c r="AE19" t="n">
-        <v>399008.6033279989</v>
+        <v>532892.7231064648</v>
       </c>
       <c r="AF19" t="n">
         <v>8.388478602142223e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>360927.7822384659</v>
+        <v>482034.1895328173</v>
       </c>
     </row>
     <row r="20">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>291.0092623151911</v>
+        <v>388.8603095998939</v>
       </c>
       <c r="AB20" t="n">
-        <v>398.1717111222086</v>
+        <v>532.0558309006746</v>
       </c>
       <c r="AC20" t="n">
-        <v>360.1707618502106</v>
+        <v>481.277169144562</v>
       </c>
       <c r="AD20" t="n">
-        <v>291009.2623151911</v>
+        <v>388860.3095998939</v>
       </c>
       <c r="AE20" t="n">
-        <v>398171.7111222086</v>
+        <v>532055.8309006746</v>
       </c>
       <c r="AF20" t="n">
         <v>8.391190730887318e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.70370370370371</v>
       </c>
       <c r="AH20" t="n">
-        <v>360170.7618502106</v>
+        <v>481277.169144562</v>
       </c>
     </row>
     <row r="21">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>289.8192365443039</v>
+        <v>387.6702838290067</v>
       </c>
       <c r="AB21" t="n">
-        <v>396.543465362249</v>
+        <v>530.427585140715</v>
       </c>
       <c r="AC21" t="n">
-        <v>358.6979135803243</v>
+        <v>479.8043208746757</v>
       </c>
       <c r="AD21" t="n">
-        <v>289819.2365443039</v>
+        <v>387670.2838290067</v>
       </c>
       <c r="AE21" t="n">
-        <v>396543.465362249</v>
+        <v>530427.585140715</v>
       </c>
       <c r="AF21" t="n">
         <v>8.417633986151997e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>358697.9135803243</v>
+        <v>479804.3208746758</v>
       </c>
     </row>
     <row r="22">
@@ -8847,28 +8847,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>289.6649828351747</v>
+        <v>387.5160301198773</v>
       </c>
       <c r="AB22" t="n">
-        <v>396.3324086322249</v>
+        <v>530.2165284106908</v>
       </c>
       <c r="AC22" t="n">
-        <v>358.5069998083937</v>
+        <v>479.6134071027452</v>
       </c>
       <c r="AD22" t="n">
-        <v>289664.9828351747</v>
+        <v>387516.0301198773</v>
       </c>
       <c r="AE22" t="n">
-        <v>396332.4086322249</v>
+        <v>530216.5284106908</v>
       </c>
       <c r="AF22" t="n">
         <v>8.424007488702972e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>18.63425925925926</v>
       </c>
       <c r="AH22" t="n">
-        <v>358506.9998083937</v>
+        <v>479613.4071027451</v>
       </c>
     </row>
     <row r="23">
@@ -8953,28 +8953,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>288.8945785655681</v>
+        <v>386.7456258502708</v>
       </c>
       <c r="AB23" t="n">
-        <v>395.2783075227115</v>
+        <v>529.1624273011776</v>
       </c>
       <c r="AC23" t="n">
-        <v>357.553500629332</v>
+        <v>478.6599079236835</v>
       </c>
       <c r="AD23" t="n">
-        <v>288894.5785655681</v>
+        <v>386745.6258502707</v>
       </c>
       <c r="AE23" t="n">
-        <v>395278.3075227115</v>
+        <v>529162.4273011775</v>
       </c>
       <c r="AF23" t="n">
         <v>8.43282190712453e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>357553.500629332</v>
+        <v>478659.9079236835</v>
       </c>
     </row>
     <row r="24">
@@ -9059,28 +9059,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>288.0247386577764</v>
+        <v>385.8757859424791</v>
       </c>
       <c r="AB24" t="n">
-        <v>394.0881541862427</v>
+        <v>527.9722739647086</v>
       </c>
       <c r="AC24" t="n">
-        <v>356.4769338569051</v>
+        <v>477.5833411512566</v>
       </c>
       <c r="AD24" t="n">
-        <v>288024.7386577764</v>
+        <v>385875.7859424792</v>
       </c>
       <c r="AE24" t="n">
-        <v>394088.1541862427</v>
+        <v>527972.2739647087</v>
       </c>
       <c r="AF24" t="n">
         <v>8.425092340201008e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>18.63425925925926</v>
       </c>
       <c r="AH24" t="n">
-        <v>356476.9338569051</v>
+        <v>477583.3411512566</v>
       </c>
     </row>
     <row r="25">
@@ -9165,28 +9165,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>287.3251290884267</v>
+        <v>385.1761763731294</v>
       </c>
       <c r="AB25" t="n">
-        <v>393.1309175088625</v>
+        <v>527.0150372873284</v>
       </c>
       <c r="AC25" t="n">
-        <v>355.611054504524</v>
+        <v>476.7174617988754</v>
       </c>
       <c r="AD25" t="n">
-        <v>287325.1290884267</v>
+        <v>385176.1763731294</v>
       </c>
       <c r="AE25" t="n">
-        <v>393130.9175088624</v>
+        <v>527015.0372873284</v>
       </c>
       <c r="AF25" t="n">
         <v>8.460621226761756e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>18.55324074074074</v>
       </c>
       <c r="AH25" t="n">
-        <v>355611.054504524</v>
+        <v>476717.4617988754</v>
       </c>
     </row>
     <row r="26">
@@ -9271,28 +9271,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>287.0508639468032</v>
+        <v>384.9019112315059</v>
       </c>
       <c r="AB26" t="n">
-        <v>392.7556558423692</v>
+        <v>526.6397756208352</v>
       </c>
       <c r="AC26" t="n">
-        <v>355.2716072847977</v>
+        <v>476.3780145791492</v>
       </c>
       <c r="AD26" t="n">
-        <v>287050.8639468033</v>
+        <v>384901.9112315059</v>
       </c>
       <c r="AE26" t="n">
-        <v>392755.6558423691</v>
+        <v>526639.7756208351</v>
       </c>
       <c r="AF26" t="n">
         <v>8.459536375263716e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18.55324074074074</v>
       </c>
       <c r="AH26" t="n">
-        <v>355271.6072847977</v>
+        <v>476378.0145791492</v>
       </c>
     </row>
     <row r="27">
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>286.8776378420772</v>
+        <v>384.72868512678</v>
       </c>
       <c r="AB27" t="n">
-        <v>392.5186402436866</v>
+        <v>526.4027600221527</v>
       </c>
       <c r="AC27" t="n">
-        <v>355.0572121221999</v>
+        <v>476.1636194165515</v>
       </c>
       <c r="AD27" t="n">
-        <v>286877.6378420772</v>
+        <v>384728.68512678</v>
       </c>
       <c r="AE27" t="n">
-        <v>392518.6402436866</v>
+        <v>526402.7600221527</v>
       </c>
       <c r="AF27" t="n">
         <v>8.461434865385285e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>18.55324074074074</v>
       </c>
       <c r="AH27" t="n">
-        <v>355057.2121221999</v>
+        <v>476163.6194165514</v>
       </c>
     </row>
     <row r="28">
@@ -9483,28 +9483,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>287.0571667138694</v>
+        <v>384.9082139985721</v>
       </c>
       <c r="AB28" t="n">
-        <v>392.7642795663274</v>
+        <v>526.6483993447936</v>
       </c>
       <c r="AC28" t="n">
-        <v>355.2794079726449</v>
+        <v>476.3858152669964</v>
       </c>
       <c r="AD28" t="n">
-        <v>287057.1667138694</v>
+        <v>384908.2139985721</v>
       </c>
       <c r="AE28" t="n">
-        <v>392764.2795663275</v>
+        <v>526648.3993447935</v>
       </c>
       <c r="AF28" t="n">
         <v>8.458993949514699e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>18.55324074074074</v>
       </c>
       <c r="AH28" t="n">
-        <v>355279.4079726449</v>
+        <v>476385.8152669964</v>
       </c>
     </row>
   </sheetData>
@@ -9780,28 +9780,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>504.4954901229223</v>
+        <v>649.7037273745441</v>
       </c>
       <c r="AB2" t="n">
-        <v>690.2729863564036</v>
+        <v>888.9533026993776</v>
       </c>
       <c r="AC2" t="n">
-        <v>624.3943013427687</v>
+        <v>804.1128471435446</v>
       </c>
       <c r="AD2" t="n">
-        <v>504495.4901229223</v>
+        <v>649703.7273745441</v>
       </c>
       <c r="AE2" t="n">
-        <v>690272.9863564037</v>
+        <v>888953.3026993775</v>
       </c>
       <c r="AF2" t="n">
         <v>5.799370051245358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.60648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>624394.3013427687</v>
+        <v>804112.8471435446</v>
       </c>
     </row>
     <row r="3">
@@ -9886,28 +9886,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>361.4323538442852</v>
+        <v>477.5647782268018</v>
       </c>
       <c r="AB3" t="n">
-        <v>494.5276917998431</v>
+        <v>653.4251982409744</v>
       </c>
       <c r="AC3" t="n">
-        <v>447.3306629684399</v>
+        <v>591.0632144088806</v>
       </c>
       <c r="AD3" t="n">
-        <v>361432.3538442852</v>
+        <v>477564.7782268018</v>
       </c>
       <c r="AE3" t="n">
-        <v>494527.6917998431</v>
+        <v>653425.1982409745</v>
       </c>
       <c r="AF3" t="n">
         <v>7.532874984306624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.80092592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>447330.6629684399</v>
+        <v>591063.2144088807</v>
       </c>
     </row>
     <row r="4">
@@ -9992,28 +9992,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.1971602369539</v>
+        <v>430.9694973491114</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.2632983743501</v>
+        <v>589.6714793054057</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.6227309505713</v>
+        <v>533.394060929616</v>
       </c>
       <c r="AD4" t="n">
-        <v>334197.1602369539</v>
+        <v>430969.4973491114</v>
       </c>
       <c r="AE4" t="n">
-        <v>457263.2983743501</v>
+        <v>589671.4793054056</v>
       </c>
       <c r="AF4" t="n">
         <v>8.175798623350914e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.00694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>413622.7309505714</v>
+        <v>533394.060929616</v>
       </c>
     </row>
     <row r="5">
@@ -10098,28 +10098,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>316.127345075576</v>
+        <v>412.8655167689527</v>
       </c>
       <c r="AB5" t="n">
-        <v>432.5393800865705</v>
+        <v>564.9008143843782</v>
       </c>
       <c r="AC5" t="n">
-        <v>391.2584287239401</v>
+        <v>510.9874735028048</v>
       </c>
       <c r="AD5" t="n">
-        <v>316127.345075576</v>
+        <v>412865.5167689527</v>
       </c>
       <c r="AE5" t="n">
-        <v>432539.3800865705</v>
+        <v>564900.8143843783</v>
       </c>
       <c r="AF5" t="n">
         <v>8.523597610177552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.15046296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>391258.4287239402</v>
+        <v>510987.4735028049</v>
       </c>
     </row>
     <row r="6">
@@ -10204,28 +10204,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>301.2927126542079</v>
+        <v>398.0982041552891</v>
       </c>
       <c r="AB6" t="n">
-        <v>412.2419815498615</v>
+        <v>544.6955257785108</v>
       </c>
       <c r="AC6" t="n">
-        <v>372.8981854159969</v>
+        <v>492.7105492831809</v>
       </c>
       <c r="AD6" t="n">
-        <v>301292.7126542079</v>
+        <v>398098.2041552891</v>
       </c>
       <c r="AE6" t="n">
-        <v>412241.9815498615</v>
+        <v>544695.5257785108</v>
       </c>
       <c r="AF6" t="n">
         <v>8.743197653054438e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.6412037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>372898.1854159969</v>
+        <v>492710.5492831809</v>
       </c>
     </row>
     <row r="7">
@@ -10310,28 +10310,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>297.981665310294</v>
+        <v>394.68567158489</v>
       </c>
       <c r="AB7" t="n">
-        <v>407.7116605008191</v>
+        <v>540.0263481653791</v>
       </c>
       <c r="AC7" t="n">
-        <v>368.8002318495296</v>
+        <v>488.4869914282145</v>
       </c>
       <c r="AD7" t="n">
-        <v>297981.665310294</v>
+        <v>394685.67158489</v>
       </c>
       <c r="AE7" t="n">
-        <v>407711.6605008191</v>
+        <v>540026.3481653791</v>
       </c>
       <c r="AF7" t="n">
         <v>8.881931463925985e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.34027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>368800.2318495296</v>
+        <v>488486.9914282145</v>
       </c>
     </row>
     <row r="8">
@@ -10416,28 +10416,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>295.6223686140864</v>
+        <v>382.7141565761358</v>
       </c>
       <c r="AB8" t="n">
-        <v>404.4835666762434</v>
+        <v>523.6463931844341</v>
       </c>
       <c r="AC8" t="n">
-        <v>365.8802227689134</v>
+        <v>473.6703163612397</v>
       </c>
       <c r="AD8" t="n">
-        <v>295622.3686140864</v>
+        <v>382714.1565761358</v>
       </c>
       <c r="AE8" t="n">
-        <v>404483.5666762434</v>
+        <v>523646.3931844342</v>
       </c>
       <c r="AF8" t="n">
         <v>8.97926769914709e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.12037037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>365880.2227689134</v>
+        <v>473670.3163612396</v>
       </c>
     </row>
     <row r="9">
@@ -10522,28 +10522,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>293.9585540268964</v>
+        <v>381.0503419889458</v>
       </c>
       <c r="AB9" t="n">
-        <v>402.2070621557311</v>
+        <v>521.3698886639218</v>
       </c>
       <c r="AC9" t="n">
-        <v>363.8209846447445</v>
+        <v>471.6110782370708</v>
       </c>
       <c r="AD9" t="n">
-        <v>293958.5540268964</v>
+        <v>381050.3419889458</v>
       </c>
       <c r="AE9" t="n">
-        <v>402207.0621557311</v>
+        <v>521369.8886639217</v>
       </c>
       <c r="AF9" t="n">
         <v>9.037728791642695e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.00462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>363820.9846447445</v>
+        <v>471611.0782370708</v>
       </c>
     </row>
     <row r="10">
@@ -10628,28 +10628,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>282.2917438771609</v>
+        <v>379.0630699594611</v>
       </c>
       <c r="AB10" t="n">
-        <v>386.2440178055249</v>
+        <v>518.6508154009265</v>
       </c>
       <c r="AC10" t="n">
-        <v>349.3814308430486</v>
+        <v>469.1515095100524</v>
       </c>
       <c r="AD10" t="n">
-        <v>282291.7438771608</v>
+        <v>379063.0699594611</v>
       </c>
       <c r="AE10" t="n">
-        <v>386244.0178055249</v>
+        <v>518650.8154009265</v>
       </c>
       <c r="AF10" t="n">
         <v>9.110285832836477e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>349381.4308430486</v>
+        <v>469151.5095100524</v>
       </c>
     </row>
     <row r="11">
@@ -10734,28 +10734,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>280.307632407707</v>
+        <v>377.0789584900074</v>
       </c>
       <c r="AB11" t="n">
-        <v>383.529268960198</v>
+        <v>515.9360665555996</v>
       </c>
       <c r="AC11" t="n">
-        <v>346.9257738173457</v>
+        <v>466.6958524843496</v>
       </c>
       <c r="AD11" t="n">
-        <v>280307.632407707</v>
+        <v>377078.9584900074</v>
       </c>
       <c r="AE11" t="n">
-        <v>383529.268960198</v>
+        <v>515936.0665555996</v>
       </c>
       <c r="AF11" t="n">
         <v>9.178688278624481e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>346925.7738173457</v>
+        <v>466695.8524843496</v>
       </c>
     </row>
     <row r="12">
@@ -10840,28 +10840,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>279.0101518354975</v>
+        <v>375.7814779177978</v>
       </c>
       <c r="AB12" t="n">
-        <v>381.753998800498</v>
+        <v>514.1607963958994</v>
       </c>
       <c r="AC12" t="n">
-        <v>345.31993295008</v>
+        <v>465.090011617084</v>
       </c>
       <c r="AD12" t="n">
-        <v>279010.1518354975</v>
+        <v>375781.4779177978</v>
       </c>
       <c r="AE12" t="n">
-        <v>381753.998800498</v>
+        <v>514160.7963958994</v>
       </c>
       <c r="AF12" t="n">
         <v>9.219640719052872e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.62268518518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>345319.93295008</v>
+        <v>465090.011617084</v>
       </c>
     </row>
     <row r="13">
@@ -10946,28 +10946,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>277.9521940156518</v>
+        <v>374.7235200979522</v>
       </c>
       <c r="AB13" t="n">
-        <v>380.3064542375802</v>
+        <v>512.7132518329815</v>
       </c>
       <c r="AC13" t="n">
-        <v>344.0105400086056</v>
+        <v>463.7806186756094</v>
       </c>
       <c r="AD13" t="n">
-        <v>277952.1940156518</v>
+        <v>374723.5200979522</v>
       </c>
       <c r="AE13" t="n">
-        <v>380306.4542375802</v>
+        <v>512713.2518329816</v>
       </c>
       <c r="AF13" t="n">
         <v>9.246942346005137e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.57638888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>344010.5400086056</v>
+        <v>463780.6186756095</v>
       </c>
     </row>
     <row r="14">
@@ -11052,28 +11052,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>277.0275789912782</v>
+        <v>373.7989050735785</v>
       </c>
       <c r="AB14" t="n">
-        <v>379.0413551700962</v>
+        <v>511.4481527654977</v>
       </c>
       <c r="AC14" t="n">
-        <v>342.8661802205445</v>
+        <v>462.6362588875485</v>
       </c>
       <c r="AD14" t="n">
-        <v>277027.5789912782</v>
+        <v>373798.9050735785</v>
       </c>
       <c r="AE14" t="n">
-        <v>379041.3551700962</v>
+        <v>511448.1527654977</v>
       </c>
       <c r="AF14" t="n">
         <v>9.247832616449229e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH14" t="n">
-        <v>342866.1802205446</v>
+        <v>462636.2588875485</v>
       </c>
     </row>
     <row r="15">
@@ -11158,28 +11158,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>276.1478537432491</v>
+        <v>372.8176945990641</v>
       </c>
       <c r="AB15" t="n">
-        <v>377.8376762750039</v>
+        <v>510.1056173063161</v>
       </c>
       <c r="AC15" t="n">
-        <v>341.777378749826</v>
+        <v>461.4218531283309</v>
       </c>
       <c r="AD15" t="n">
-        <v>276147.8537432491</v>
+        <v>372817.6945990641</v>
       </c>
       <c r="AE15" t="n">
-        <v>377837.6762750039</v>
+        <v>510105.6173063161</v>
       </c>
       <c r="AF15" t="n">
         <v>9.285372353508592e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.49537037037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>341777.378749826</v>
+        <v>461421.8531283309</v>
       </c>
     </row>
     <row r="16">
@@ -11264,28 +11264,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>274.6498593852235</v>
+        <v>361.7074819284921</v>
       </c>
       <c r="AB16" t="n">
-        <v>375.7880543075064</v>
+        <v>494.9041341824493</v>
       </c>
       <c r="AC16" t="n">
-        <v>339.923369826244</v>
+        <v>447.6711782183904</v>
       </c>
       <c r="AD16" t="n">
-        <v>274649.8593852235</v>
+        <v>361707.4819284921</v>
       </c>
       <c r="AE16" t="n">
-        <v>375788.0543075064</v>
+        <v>494904.1341824493</v>
       </c>
       <c r="AF16" t="n">
         <v>9.320241279235665e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.42592592592593</v>
       </c>
       <c r="AH16" t="n">
-        <v>339923.369826244</v>
+        <v>447671.1782183904</v>
       </c>
     </row>
     <row r="17">
@@ -11370,28 +11370,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>273.9306351720838</v>
+        <v>360.9882577153525</v>
       </c>
       <c r="AB17" t="n">
-        <v>374.8039800091558</v>
+        <v>493.9200598840987</v>
       </c>
       <c r="AC17" t="n">
-        <v>339.033214197771</v>
+        <v>446.7810225899174</v>
       </c>
       <c r="AD17" t="n">
-        <v>273930.6351720839</v>
+        <v>360988.2577153525</v>
       </c>
       <c r="AE17" t="n">
-        <v>374803.9800091558</v>
+        <v>493920.0598840987</v>
       </c>
       <c r="AF17" t="n">
         <v>9.317273711088678e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.42592592592593</v>
       </c>
       <c r="AH17" t="n">
-        <v>339033.214197771</v>
+        <v>446781.0225899174</v>
       </c>
     </row>
     <row r="18">
@@ -11476,28 +11476,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>272.6701343677337</v>
+        <v>359.7277569110024</v>
       </c>
       <c r="AB18" t="n">
-        <v>373.0793071992732</v>
+        <v>492.1953870742161</v>
       </c>
       <c r="AC18" t="n">
-        <v>337.4731417402701</v>
+        <v>445.2209501324165</v>
       </c>
       <c r="AD18" t="n">
-        <v>272670.1343677337</v>
+        <v>359727.7569110023</v>
       </c>
       <c r="AE18" t="n">
-        <v>373079.3071992732</v>
+        <v>492195.387074216</v>
       </c>
       <c r="AF18" t="n">
         <v>9.356148853814183e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH18" t="n">
-        <v>337473.1417402701</v>
+        <v>445220.9501324165</v>
       </c>
     </row>
     <row r="19">
@@ -11582,28 +11582,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>272.6102699773504</v>
+        <v>359.667892520619</v>
       </c>
       <c r="AB19" t="n">
-        <v>372.9973980993203</v>
+        <v>492.1134779742632</v>
       </c>
       <c r="AC19" t="n">
-        <v>337.3990499298565</v>
+        <v>445.1468583220029</v>
       </c>
       <c r="AD19" t="n">
-        <v>272610.2699773504</v>
+        <v>359667.892520619</v>
       </c>
       <c r="AE19" t="n">
-        <v>372997.3980993202</v>
+        <v>492113.4779742631</v>
       </c>
       <c r="AF19" t="n">
         <v>9.353478042481897e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH19" t="n">
-        <v>337399.0499298565</v>
+        <v>445146.8583220029</v>
       </c>
     </row>
     <row r="20">
@@ -11688,28 +11688,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>272.836676894847</v>
+        <v>359.8942994381156</v>
       </c>
       <c r="AB20" t="n">
-        <v>373.3071780322073</v>
+        <v>492.4232579071502</v>
       </c>
       <c r="AC20" t="n">
-        <v>337.6792649007277</v>
+        <v>445.4270732928741</v>
       </c>
       <c r="AD20" t="n">
-        <v>272836.676894847</v>
+        <v>359894.2994381156</v>
       </c>
       <c r="AE20" t="n">
-        <v>373307.1780322073</v>
+        <v>492423.2579071502</v>
       </c>
       <c r="AF20" t="n">
         <v>9.351549123186355e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.36805555555555</v>
       </c>
       <c r="AH20" t="n">
-        <v>337679.2649007277</v>
+        <v>445427.0732928741</v>
       </c>
     </row>
   </sheetData>
@@ -11985,28 +11985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.8335036547307</v>
+        <v>412.676482984018</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.927868589883</v>
+        <v>564.6421700202486</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.4687877981643</v>
+        <v>510.7535137937782</v>
       </c>
       <c r="AD2" t="n">
-        <v>309833.5036547307</v>
+        <v>412676.482984018</v>
       </c>
       <c r="AE2" t="n">
-        <v>423927.868589883</v>
+        <v>564642.1700202486</v>
       </c>
       <c r="AF2" t="n">
         <v>1.075967869499544e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.2800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>383468.7877981643</v>
+        <v>510753.5137937781</v>
       </c>
     </row>
     <row r="3">
@@ -12091,28 +12091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.9500532876997</v>
+        <v>354.5048706849649</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.0433752120853</v>
+        <v>485.0492037222735</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.9676565953676</v>
+        <v>438.7567884898521</v>
       </c>
       <c r="AD3" t="n">
-        <v>260950.0532876998</v>
+        <v>354504.8706849649</v>
       </c>
       <c r="AE3" t="n">
-        <v>357043.3752120853</v>
+        <v>485049.2037222735</v>
       </c>
       <c r="AF3" t="n">
         <v>1.228624292922275e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.51388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>322967.6565953676</v>
+        <v>438756.7884898521</v>
       </c>
     </row>
     <row r="4">
@@ -12197,28 +12197,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.2512454840513</v>
+        <v>338.7718974625387</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.5635737924551</v>
+        <v>463.5226556695579</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.5378572762368</v>
+        <v>419.2847039705876</v>
       </c>
       <c r="AD4" t="n">
-        <v>245251.2454840513</v>
+        <v>338771.8974625387</v>
       </c>
       <c r="AE4" t="n">
-        <v>335563.5737924551</v>
+        <v>463522.6556695579</v>
       </c>
       <c r="AF4" t="n">
         <v>1.277604409784947e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.76157407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>303537.8572762368</v>
+        <v>419284.7039705876</v>
       </c>
     </row>
     <row r="5">
@@ -12303,28 +12303,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>241.2748081559235</v>
+        <v>325.4068240057608</v>
       </c>
       <c r="AB5" t="n">
-        <v>330.1228368120795</v>
+        <v>445.235972540567</v>
       </c>
       <c r="AC5" t="n">
-        <v>298.6163765971443</v>
+        <v>402.7432762139067</v>
       </c>
       <c r="AD5" t="n">
-        <v>241274.8081559235</v>
+        <v>325406.8240057608</v>
       </c>
       <c r="AE5" t="n">
-        <v>330122.8368120795</v>
+        <v>445235.972540567</v>
       </c>
       <c r="AF5" t="n">
         <v>1.304424389208694e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.37962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>298616.3765971443</v>
+        <v>402743.2762139067</v>
       </c>
     </row>
     <row r="6">
@@ -12409,28 +12409,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>238.4165621770469</v>
+        <v>322.5485780268841</v>
       </c>
       <c r="AB6" t="n">
-        <v>326.2120585668693</v>
+        <v>441.3251942953548</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.078837538844</v>
+        <v>399.2057371556058</v>
       </c>
       <c r="AD6" t="n">
-        <v>238416.5621770469</v>
+        <v>322548.5780268841</v>
       </c>
       <c r="AE6" t="n">
-        <v>326212.0585668693</v>
+        <v>441325.1942953548</v>
       </c>
       <c r="AF6" t="n">
         <v>1.319522277239514e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.17129629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>295078.837538844</v>
+        <v>399205.7371556058</v>
       </c>
     </row>
     <row r="7">
@@ -12515,28 +12515,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>238.360772583199</v>
+        <v>322.4927884330363</v>
       </c>
       <c r="AB7" t="n">
-        <v>326.1357247833035</v>
+        <v>441.248860511789</v>
       </c>
       <c r="AC7" t="n">
-        <v>295.0097889444466</v>
+        <v>399.1366885612084</v>
       </c>
       <c r="AD7" t="n">
-        <v>238360.772583199</v>
+        <v>322492.7884330362</v>
       </c>
       <c r="AE7" t="n">
-        <v>326135.7247833036</v>
+        <v>441248.860511789</v>
       </c>
       <c r="AF7" t="n">
         <v>1.322131788751013e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>295009.7889444466</v>
+        <v>399136.6885612084</v>
       </c>
     </row>
   </sheetData>
@@ -12812,28 +12812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.5672766002225</v>
+        <v>489.7050376251819</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.5535196513202</v>
+        <v>670.0360367402826</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.6859556705834</v>
+        <v>606.0887377952732</v>
       </c>
       <c r="AD2" t="n">
-        <v>366567.2766002225</v>
+        <v>489705.037625182</v>
       </c>
       <c r="AE2" t="n">
-        <v>501553.5196513202</v>
+        <v>670036.0367402827</v>
       </c>
       <c r="AF2" t="n">
         <v>8.476892001219712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.49074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>453685.9556705834</v>
+        <v>606088.7377952732</v>
       </c>
     </row>
     <row r="3">
@@ -12918,28 +12918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.4808192181596</v>
+        <v>398.7549252126466</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.9216484311315</v>
+        <v>545.5940805016758</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.4673718089488</v>
+        <v>493.5233472046964</v>
       </c>
       <c r="AD3" t="n">
-        <v>294480.8192181597</v>
+        <v>398754.9252126466</v>
       </c>
       <c r="AE3" t="n">
-        <v>402921.6484311315</v>
+        <v>545594.0805016757</v>
       </c>
       <c r="AF3" t="n">
         <v>1.009895131187965e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>364467.3718089488</v>
+        <v>493523.3472046964</v>
       </c>
     </row>
     <row r="4">
@@ -13024,28 +13024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.8151173281939</v>
+        <v>370.5393333864976</v>
       </c>
       <c r="AB4" t="n">
-        <v>377.3824116326309</v>
+        <v>506.9882629810797</v>
       </c>
       <c r="AC4" t="n">
-        <v>341.365563925953</v>
+        <v>458.6020147246608</v>
       </c>
       <c r="AD4" t="n">
-        <v>275815.1173281939</v>
+        <v>370539.3333864976</v>
       </c>
       <c r="AE4" t="n">
-        <v>377382.4116326309</v>
+        <v>506988.2629810797</v>
       </c>
       <c r="AF4" t="n">
         <v>1.065458374713224e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.47916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>341365.5639259531</v>
+        <v>458602.0147246608</v>
       </c>
     </row>
     <row r="5">
@@ -13130,28 +13130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>261.3402748319279</v>
+        <v>356.1318106979359</v>
       </c>
       <c r="AB5" t="n">
-        <v>357.5772935442578</v>
+        <v>487.2752548235482</v>
       </c>
       <c r="AC5" t="n">
-        <v>323.4506185112766</v>
+        <v>440.7703883983033</v>
       </c>
       <c r="AD5" t="n">
-        <v>261340.2748319279</v>
+        <v>356131.8106979359</v>
       </c>
       <c r="AE5" t="n">
-        <v>357577.2935442578</v>
+        <v>487275.2548235481</v>
       </c>
       <c r="AF5" t="n">
         <v>1.09541015543859e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.94675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>323450.6185112766</v>
+        <v>440770.3883983033</v>
       </c>
     </row>
     <row r="6">
@@ -13236,28 +13236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.3039118423115</v>
+        <v>353.0954477083195</v>
       </c>
       <c r="AB6" t="n">
-        <v>353.4228077469836</v>
+        <v>483.120769026274</v>
       </c>
       <c r="AC6" t="n">
-        <v>319.6926310076367</v>
+        <v>437.0124008946635</v>
       </c>
       <c r="AD6" t="n">
-        <v>258303.9118423115</v>
+        <v>353095.4477083195</v>
       </c>
       <c r="AE6" t="n">
-        <v>353422.8077469836</v>
+        <v>483120.769026274</v>
       </c>
       <c r="AF6" t="n">
         <v>1.112054019218913e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.66898148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>319692.6310076367</v>
+        <v>437012.4008946635</v>
       </c>
     </row>
     <row r="7">
@@ -13342,28 +13342,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>255.3703861743569</v>
+        <v>340.6461975229656</v>
       </c>
       <c r="AB7" t="n">
-        <v>349.4090285099043</v>
+        <v>466.0871557005167</v>
       </c>
       <c r="AC7" t="n">
-        <v>316.0619212276749</v>
+        <v>421.6044517178902</v>
       </c>
       <c r="AD7" t="n">
-        <v>255370.3861743569</v>
+        <v>340646.1975229656</v>
       </c>
       <c r="AE7" t="n">
-        <v>349409.0285099043</v>
+        <v>466087.1557005167</v>
       </c>
       <c r="AF7" t="n">
         <v>1.127352743146301e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>316061.9212276749</v>
+        <v>421604.4517178902</v>
       </c>
     </row>
     <row r="8">
@@ -13448,28 +13448,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>253.5109751013847</v>
+        <v>338.7867864499934</v>
       </c>
       <c r="AB8" t="n">
-        <v>346.8649002484381</v>
+        <v>463.5430274390491</v>
       </c>
       <c r="AC8" t="n">
-        <v>313.7606009967757</v>
+        <v>419.3031314869906</v>
       </c>
       <c r="AD8" t="n">
-        <v>253510.9751013847</v>
+        <v>338786.7864499934</v>
       </c>
       <c r="AE8" t="n">
-        <v>346864.9002484381</v>
+        <v>463543.0274390491</v>
       </c>
       <c r="AF8" t="n">
         <v>1.135423582263914e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.28703703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>313760.6009967757</v>
+        <v>419303.1314869906</v>
       </c>
     </row>
     <row r="9">
@@ -13554,28 +13554,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>251.3834382438296</v>
+        <v>336.6592495924383</v>
       </c>
       <c r="AB9" t="n">
-        <v>343.9539104596308</v>
+        <v>460.6320376502404</v>
       </c>
       <c r="AC9" t="n">
-        <v>311.1274319878115</v>
+        <v>416.6699624780259</v>
       </c>
       <c r="AD9" t="n">
-        <v>251383.4382438296</v>
+        <v>336659.2495924383</v>
       </c>
       <c r="AE9" t="n">
-        <v>343953.9104596308</v>
+        <v>460632.0376502404</v>
       </c>
       <c r="AF9" t="n">
         <v>1.142490050291336e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.17129629629629</v>
       </c>
       <c r="AH9" t="n">
-        <v>311127.4319878115</v>
+        <v>416669.9624780259</v>
       </c>
     </row>
     <row r="10">
@@ -13660,28 +13660,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>250.4294115094128</v>
+        <v>335.7052228580215</v>
       </c>
       <c r="AB10" t="n">
-        <v>342.6485689929133</v>
+        <v>459.3266961835222</v>
       </c>
       <c r="AC10" t="n">
-        <v>309.9466704786189</v>
+        <v>415.4892009688331</v>
       </c>
       <c r="AD10" t="n">
-        <v>250429.4115094128</v>
+        <v>335705.2228580215</v>
       </c>
       <c r="AE10" t="n">
-        <v>342648.5689929134</v>
+        <v>459326.6961835222</v>
       </c>
       <c r="AF10" t="n">
         <v>1.145556969156029e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH10" t="n">
-        <v>309946.6704786189</v>
+        <v>415489.2009688331</v>
       </c>
     </row>
     <row r="11">
@@ -13766,28 +13766,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>250.8720082518509</v>
+        <v>336.1478196004595</v>
       </c>
       <c r="AB11" t="n">
-        <v>343.254149381907</v>
+        <v>459.9322765725162</v>
       </c>
       <c r="AC11" t="n">
-        <v>310.4944551252246</v>
+        <v>416.0369856154389</v>
       </c>
       <c r="AD11" t="n">
-        <v>250872.0082518509</v>
+        <v>336147.8196004595</v>
       </c>
       <c r="AE11" t="n">
-        <v>343254.149381907</v>
+        <v>459932.2765725162</v>
       </c>
       <c r="AF11" t="n">
         <v>1.144624338857994e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.13657407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>310494.4551252246</v>
+        <v>416036.9856154389</v>
       </c>
     </row>
   </sheetData>
@@ -14063,28 +14063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.8355235880965</v>
+        <v>367.5650332722647</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.7278912088263</v>
+        <v>502.9186943479259</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.0142117671567</v>
+        <v>454.9208400101798</v>
       </c>
       <c r="AD2" t="n">
-        <v>265835.5235880965</v>
+        <v>367565.0332722646</v>
       </c>
       <c r="AE2" t="n">
-        <v>363727.8912088263</v>
+        <v>502918.6943479258</v>
       </c>
       <c r="AF2" t="n">
         <v>1.320877285040615e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.78703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>329014.2117671567</v>
+        <v>454920.8400101798</v>
       </c>
     </row>
     <row r="3">
@@ -14169,28 +14169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.137560445214</v>
+        <v>326.6158269382078</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.3573396211453</v>
+        <v>446.890183690186</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.7828847521483</v>
+        <v>404.239611773106</v>
       </c>
       <c r="AD3" t="n">
-        <v>234137.560445214</v>
+        <v>326615.8269382078</v>
       </c>
       <c r="AE3" t="n">
-        <v>320357.3396211453</v>
+        <v>446890.183690186</v>
       </c>
       <c r="AF3" t="n">
         <v>1.455754597064553e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>289782.8847521483</v>
+        <v>404239.611773106</v>
       </c>
     </row>
     <row r="4">
@@ -14275,28 +14275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.7741629998351</v>
+        <v>311.9680319127281</v>
       </c>
       <c r="AB4" t="n">
-        <v>313.0189026199858</v>
+        <v>426.8484243212157</v>
       </c>
       <c r="AC4" t="n">
-        <v>283.1448178788162</v>
+        <v>386.1106097895243</v>
       </c>
       <c r="AD4" t="n">
-        <v>228774.1629998351</v>
+        <v>311968.0319127281</v>
       </c>
       <c r="AE4" t="n">
-        <v>313018.9026199858</v>
+        <v>426848.4243212157</v>
       </c>
       <c r="AF4" t="n">
         <v>1.50421649443791e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.25231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>283144.8178788162</v>
+        <v>386110.6097895243</v>
       </c>
     </row>
     <row r="5">
@@ -14381,28 +14381,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.7066898403583</v>
+        <v>311.9005587532513</v>
       </c>
       <c r="AB5" t="n">
-        <v>312.926582866484</v>
+        <v>426.7561045677139</v>
       </c>
       <c r="AC5" t="n">
-        <v>283.061308993017</v>
+        <v>386.0271009037251</v>
       </c>
       <c r="AD5" t="n">
-        <v>228706.6898403583</v>
+        <v>311900.5587532513</v>
       </c>
       <c r="AE5" t="n">
-        <v>312926.582866484</v>
+        <v>426756.1045677139</v>
       </c>
       <c r="AF5" t="n">
         <v>1.506469984526245e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>283061.308993017</v>
+        <v>386027.1009037251</v>
       </c>
     </row>
   </sheetData>
@@ -14678,28 +14678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>533.131164702114</v>
+        <v>688.4398584645614</v>
       </c>
       <c r="AB2" t="n">
-        <v>729.4535796324554</v>
+        <v>941.9537861742335</v>
       </c>
       <c r="AC2" t="n">
-        <v>659.8355537868622</v>
+        <v>852.0550388622061</v>
       </c>
       <c r="AD2" t="n">
-        <v>533131.164702114</v>
+        <v>688439.8584645614</v>
       </c>
       <c r="AE2" t="n">
-        <v>729453.5796324555</v>
+        <v>941953.7861742335</v>
       </c>
       <c r="AF2" t="n">
         <v>5.464089764936207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.67129629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>659835.5537868622</v>
+        <v>852055.038862206</v>
       </c>
     </row>
     <row r="3">
@@ -14784,28 +14784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.8845221001805</v>
+        <v>484.6495833983514</v>
       </c>
       <c r="AB3" t="n">
-        <v>517.0382742259965</v>
+        <v>663.1189412362331</v>
       </c>
       <c r="AC3" t="n">
-        <v>467.6928670016422</v>
+        <v>599.8318001779256</v>
       </c>
       <c r="AD3" t="n">
-        <v>377884.5221001805</v>
+        <v>484649.5833983513</v>
       </c>
       <c r="AE3" t="n">
-        <v>517038.2742259965</v>
+        <v>663118.9412362331</v>
       </c>
       <c r="AF3" t="n">
         <v>7.266050628932581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.06712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>467692.8670016422</v>
+        <v>599831.8001779256</v>
       </c>
     </row>
     <row r="4">
@@ -14890,28 +14890,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.82795712207</v>
+        <v>446.5246875826792</v>
       </c>
       <c r="AB4" t="n">
-        <v>464.9676030857925</v>
+        <v>610.9547768295334</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.5917476334132</v>
+        <v>552.6461104093368</v>
       </c>
       <c r="AD4" t="n">
-        <v>339827.95712207</v>
+        <v>446524.6875826792</v>
       </c>
       <c r="AE4" t="n">
-        <v>464967.6030857924</v>
+        <v>610954.7768295334</v>
       </c>
       <c r="AF4" t="n">
         <v>7.907777470976126e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.19212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>420591.7476334132</v>
+        <v>552646.1104093367</v>
       </c>
     </row>
     <row r="5">
@@ -14996,28 +14996,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.589798095973</v>
+        <v>418.6117652765363</v>
       </c>
       <c r="AB5" t="n">
-        <v>440.0133492954968</v>
+        <v>572.7630850990466</v>
       </c>
       <c r="AC5" t="n">
-        <v>398.0190928013483</v>
+        <v>518.0993801352315</v>
       </c>
       <c r="AD5" t="n">
-        <v>321589.798095973</v>
+        <v>418611.7652765363</v>
       </c>
       <c r="AE5" t="n">
-        <v>440013.3492954968</v>
+        <v>572763.0850990466</v>
       </c>
       <c r="AF5" t="n">
         <v>8.243554670141059e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.32407407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>398019.0928013483</v>
+        <v>518099.3801352315</v>
       </c>
     </row>
     <row r="6">
@@ -15102,28 +15102,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>306.6717787186611</v>
+        <v>413.401663568194</v>
       </c>
       <c r="AB6" t="n">
-        <v>419.6018570468929</v>
+        <v>565.6343940882274</v>
       </c>
       <c r="AC6" t="n">
-        <v>379.5556447252417</v>
+        <v>511.6510413893044</v>
       </c>
       <c r="AD6" t="n">
-        <v>306671.7787186611</v>
+        <v>413401.663568194</v>
       </c>
       <c r="AE6" t="n">
-        <v>419601.8570468929</v>
+        <v>565634.3940882274</v>
       </c>
       <c r="AF6" t="n">
         <v>8.454664267546177e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.82638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>379555.6447252417</v>
+        <v>511651.0413893044</v>
       </c>
     </row>
     <row r="7">
@@ -15208,28 +15208,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>303.3752869608831</v>
+        <v>400.4645739491508</v>
       </c>
       <c r="AB7" t="n">
-        <v>415.0914515929487</v>
+        <v>547.9332973273398</v>
       </c>
       <c r="AC7" t="n">
-        <v>375.4757060374281</v>
+        <v>495.6393124596304</v>
       </c>
       <c r="AD7" t="n">
-        <v>303375.2869608831</v>
+        <v>400464.5739491508</v>
       </c>
       <c r="AE7" t="n">
-        <v>415091.4515929486</v>
+        <v>547933.2973273398</v>
       </c>
       <c r="AF7" t="n">
         <v>8.588019507059288e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.51388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>375475.7060374281</v>
+        <v>495639.3124596304</v>
       </c>
     </row>
     <row r="8">
@@ -15314,28 +15314,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>301.0310575986802</v>
+        <v>398.0188593604626</v>
       </c>
       <c r="AB8" t="n">
-        <v>411.8839735594821</v>
+        <v>544.5869627297841</v>
       </c>
       <c r="AC8" t="n">
-        <v>372.574345205752</v>
+        <v>492.6123473394553</v>
       </c>
       <c r="AD8" t="n">
-        <v>301031.0575986802</v>
+        <v>398018.8593604626</v>
       </c>
       <c r="AE8" t="n">
-        <v>411883.9735594821</v>
+        <v>544586.9627297841</v>
       </c>
       <c r="AF8" t="n">
         <v>8.678660527618687e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.30555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>372574.345205752</v>
+        <v>492612.3473394553</v>
       </c>
     </row>
     <row r="9">
@@ -15420,28 +15420,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>298.4681360922256</v>
+        <v>385.8153399927428</v>
       </c>
       <c r="AB9" t="n">
-        <v>408.3772712862341</v>
+        <v>527.8895691495924</v>
       </c>
       <c r="AC9" t="n">
-        <v>369.4023176757751</v>
+        <v>477.5085295676182</v>
       </c>
       <c r="AD9" t="n">
-        <v>298468.1360922256</v>
+        <v>385815.3399927429</v>
       </c>
       <c r="AE9" t="n">
-        <v>408377.2712862341</v>
+        <v>527889.5691495924</v>
       </c>
       <c r="AF9" t="n">
         <v>8.784939296134022e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.07407407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>369402.3176757751</v>
+        <v>477508.5295676182</v>
       </c>
     </row>
     <row r="10">
@@ -15526,28 +15526,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>286.7129617808706</v>
+        <v>383.7680833503574</v>
       </c>
       <c r="AB10" t="n">
-        <v>392.2933231917485</v>
+        <v>525.0884222928918</v>
       </c>
       <c r="AC10" t="n">
-        <v>354.8533990134644</v>
+        <v>474.9747202354867</v>
       </c>
       <c r="AD10" t="n">
-        <v>286712.9617808706</v>
+        <v>383768.0833503574</v>
       </c>
       <c r="AE10" t="n">
-        <v>392293.3231917485</v>
+        <v>525088.4222928918</v>
       </c>
       <c r="AF10" t="n">
         <v>8.852847664572294e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.93518518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>354853.3990134643</v>
+        <v>474974.7202354867</v>
       </c>
     </row>
     <row r="11">
@@ -15632,28 +15632,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>285.6349599162049</v>
+        <v>382.6900814856918</v>
       </c>
       <c r="AB11" t="n">
-        <v>390.8183534824272</v>
+        <v>523.6134525835705</v>
       </c>
       <c r="AC11" t="n">
-        <v>353.5191983430677</v>
+        <v>473.6405195650901</v>
       </c>
       <c r="AD11" t="n">
-        <v>285634.9599162049</v>
+        <v>382690.0814856918</v>
       </c>
       <c r="AE11" t="n">
-        <v>390818.3534824272</v>
+        <v>523613.4525835706</v>
       </c>
       <c r="AF11" t="n">
         <v>8.890349300874027e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>353519.1983430677</v>
+        <v>473640.5195650901</v>
       </c>
     </row>
     <row r="12">
@@ -15738,28 +15738,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>284.4654742689725</v>
+        <v>381.5205958384594</v>
       </c>
       <c r="AB12" t="n">
-        <v>389.2182116258185</v>
+        <v>522.0133107269618</v>
       </c>
       <c r="AC12" t="n">
-        <v>352.0717717794404</v>
+        <v>472.1930930014628</v>
       </c>
       <c r="AD12" t="n">
-        <v>284465.4742689725</v>
+        <v>381520.5958384594</v>
       </c>
       <c r="AE12" t="n">
-        <v>389218.2116258185</v>
+        <v>522013.3107269618</v>
       </c>
       <c r="AF12" t="n">
         <v>8.920900826973121e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.78472222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>352071.7717794405</v>
+        <v>472193.0930014629</v>
       </c>
     </row>
     <row r="13">
@@ -15844,28 +15844,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>283.2813611208242</v>
+        <v>380.336482690311</v>
       </c>
       <c r="AB13" t="n">
-        <v>387.5980557771367</v>
+        <v>520.39315487828</v>
       </c>
       <c r="AC13" t="n">
-        <v>350.6062413310539</v>
+        <v>470.7275625530762</v>
       </c>
       <c r="AD13" t="n">
-        <v>283281.3611208242</v>
+        <v>380336.482690311</v>
       </c>
       <c r="AE13" t="n">
-        <v>387598.0557771366</v>
+        <v>520393.15487828</v>
       </c>
       <c r="AF13" t="n">
         <v>8.952465910810102e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>350606.2413310539</v>
+        <v>470727.5625530762</v>
       </c>
     </row>
     <row r="14">
@@ -15950,28 +15950,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>281.9620008514998</v>
+        <v>379.0171224209867</v>
       </c>
       <c r="AB14" t="n">
-        <v>385.79284885058</v>
+        <v>518.5879479517232</v>
       </c>
       <c r="AC14" t="n">
-        <v>348.9733208199439</v>
+        <v>469.0946420419662</v>
       </c>
       <c r="AD14" t="n">
-        <v>281962.0008514998</v>
+        <v>379017.1224209866</v>
       </c>
       <c r="AE14" t="n">
-        <v>385792.8488505799</v>
+        <v>518587.9479517232</v>
       </c>
       <c r="AF14" t="n">
         <v>8.991705074662493e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.63425925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>348973.3208199439</v>
+        <v>469094.6420419662</v>
       </c>
     </row>
     <row r="15">
@@ -16056,28 +16056,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>280.5988161202533</v>
+        <v>377.6539376897401</v>
       </c>
       <c r="AB15" t="n">
-        <v>383.9276793618225</v>
+        <v>516.7227784629658</v>
       </c>
       <c r="AC15" t="n">
-        <v>347.2861604894116</v>
+        <v>467.4074817114339</v>
       </c>
       <c r="AD15" t="n">
-        <v>280598.8161202533</v>
+        <v>377653.9376897401</v>
       </c>
       <c r="AE15" t="n">
-        <v>383927.6793618225</v>
+        <v>516722.7784629658</v>
       </c>
       <c r="AF15" t="n">
         <v>9.025442067937797e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH15" t="n">
-        <v>347286.1604894116</v>
+        <v>467407.481711434</v>
       </c>
     </row>
     <row r="16">
@@ -16162,28 +16162,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>280.0737720958784</v>
+        <v>377.1288936653652</v>
       </c>
       <c r="AB16" t="n">
-        <v>383.2092909643653</v>
+        <v>516.0043900655086</v>
       </c>
       <c r="AC16" t="n">
-        <v>346.6363340723432</v>
+        <v>466.7576552943656</v>
       </c>
       <c r="AD16" t="n">
-        <v>280073.7720958784</v>
+        <v>377128.8936653652</v>
       </c>
       <c r="AE16" t="n">
-        <v>383209.2909643652</v>
+        <v>516004.3900655085</v>
       </c>
       <c r="AF16" t="n">
         <v>9.024428510199912e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>346636.3340723432</v>
+        <v>466757.6552943656</v>
       </c>
     </row>
     <row r="17">
@@ -16268,28 +16268,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>278.9271185001791</v>
+        <v>375.8807548431806</v>
       </c>
       <c r="AB17" t="n">
-        <v>381.640388927943</v>
+        <v>514.2966314649971</v>
       </c>
       <c r="AC17" t="n">
-        <v>345.2171658443093</v>
+        <v>465.2128827778327</v>
       </c>
       <c r="AD17" t="n">
-        <v>278927.1185001791</v>
+        <v>375880.7548431806</v>
       </c>
       <c r="AE17" t="n">
-        <v>381640.388927943</v>
+        <v>514296.6314649971</v>
       </c>
       <c r="AF17" t="n">
         <v>9.059903031025876e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.49537037037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>345217.1658443093</v>
+        <v>465212.8827778327</v>
       </c>
     </row>
     <row r="18">
@@ -16374,28 +16374,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>277.9322495705293</v>
+        <v>374.885885913531</v>
       </c>
       <c r="AB18" t="n">
-        <v>380.2791653678767</v>
+        <v>512.9354079049308</v>
       </c>
       <c r="AC18" t="n">
-        <v>343.9858555503264</v>
+        <v>463.9815724838498</v>
       </c>
       <c r="AD18" t="n">
-        <v>277932.2495705293</v>
+        <v>374885.8859135309</v>
       </c>
       <c r="AE18" t="n">
-        <v>380279.1653678767</v>
+        <v>512935.4079049308</v>
       </c>
       <c r="AF18" t="n">
         <v>9.06004782498843e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.49537037037037</v>
       </c>
       <c r="AH18" t="n">
-        <v>343985.8555503265</v>
+        <v>463981.5724838498</v>
       </c>
     </row>
     <row r="19">
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>277.060911761153</v>
+        <v>364.3739502428895</v>
       </c>
       <c r="AB19" t="n">
-        <v>379.0869625363769</v>
+        <v>498.5525137664875</v>
       </c>
       <c r="AC19" t="n">
-        <v>342.9074348837978</v>
+        <v>450.9713615754609</v>
       </c>
       <c r="AD19" t="n">
-        <v>277060.911761153</v>
+        <v>364373.9502428895</v>
       </c>
       <c r="AE19" t="n">
-        <v>379086.9625363769</v>
+        <v>498552.5137664875</v>
       </c>
       <c r="AF19" t="n">
         <v>9.092336878638184e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.42592592592593</v>
       </c>
       <c r="AH19" t="n">
-        <v>342907.4348837978</v>
+        <v>450971.3615754609</v>
       </c>
     </row>
     <row r="20">
@@ -16586,28 +16586,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>276.6979092185506</v>
+        <v>364.010947700287</v>
       </c>
       <c r="AB20" t="n">
-        <v>378.5902864430463</v>
+        <v>498.0558376731569</v>
       </c>
       <c r="AC20" t="n">
-        <v>342.4581608597254</v>
+        <v>450.5220875513886</v>
       </c>
       <c r="AD20" t="n">
-        <v>276697.9092185506</v>
+        <v>364010.947700287</v>
       </c>
       <c r="AE20" t="n">
-        <v>378590.2864430463</v>
+        <v>498055.8376731569</v>
       </c>
       <c r="AF20" t="n">
         <v>9.095956727702058e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.42592592592593</v>
       </c>
       <c r="AH20" t="n">
-        <v>342458.1608597254</v>
+        <v>450522.0875513885</v>
       </c>
     </row>
     <row r="21">
@@ -16692,28 +16692,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>275.6717470789141</v>
+        <v>362.9847855606506</v>
       </c>
       <c r="AB21" t="n">
-        <v>377.1862461325172</v>
+        <v>496.6517973626277</v>
       </c>
       <c r="AC21" t="n">
-        <v>341.1881201858503</v>
+        <v>449.2520468775133</v>
       </c>
       <c r="AD21" t="n">
-        <v>275671.7470789141</v>
+        <v>362984.7855606506</v>
       </c>
       <c r="AE21" t="n">
-        <v>377186.2461325172</v>
+        <v>496651.7973626278</v>
       </c>
       <c r="AF21" t="n">
         <v>9.101893280166811e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH21" t="n">
-        <v>341188.1201858503</v>
+        <v>449252.0468775133</v>
       </c>
     </row>
     <row r="22">
@@ -16798,28 +16798,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>275.9597111291151</v>
+        <v>363.2727496108515</v>
       </c>
       <c r="AB22" t="n">
-        <v>377.5802512500794</v>
+        <v>497.0458024801899</v>
       </c>
       <c r="AC22" t="n">
-        <v>341.544522007982</v>
+        <v>449.6084486996451</v>
       </c>
       <c r="AD22" t="n">
-        <v>275959.7111291151</v>
+        <v>363272.7496108515</v>
       </c>
       <c r="AE22" t="n">
-        <v>377580.2512500794</v>
+        <v>497045.8024801899</v>
       </c>
       <c r="AF22" t="n">
         <v>9.096246315627168e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>18.42592592592593</v>
       </c>
       <c r="AH22" t="n">
-        <v>341544.522007982</v>
+        <v>449608.4486996451</v>
       </c>
     </row>
   </sheetData>
@@ -17095,28 +17095,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.8875909232317</v>
+        <v>344.7154547468155</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.0119585141205</v>
+        <v>471.6548929571466</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.98906282447</v>
+        <v>426.6408119451156</v>
       </c>
       <c r="AD2" t="n">
-        <v>252887.5909232317</v>
+        <v>344715.4547468154</v>
       </c>
       <c r="AE2" t="n">
-        <v>346011.9585141205</v>
+        <v>471654.8929571466</v>
       </c>
       <c r="AF2" t="n">
         <v>1.497193090733006e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.06944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>312989.06282447</v>
+        <v>426640.8119451156</v>
       </c>
     </row>
     <row r="3">
@@ -17201,28 +17201,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.5027829422348</v>
+        <v>306.1411284026896</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.8063678683056</v>
+        <v>418.8757978739409</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.6206373209779</v>
+        <v>378.8988796207259</v>
       </c>
       <c r="AD3" t="n">
-        <v>223502.7829422348</v>
+        <v>306141.1284026896</v>
       </c>
       <c r="AE3" t="n">
-        <v>305806.3678683056</v>
+        <v>418875.797873941</v>
       </c>
       <c r="AF3" t="n">
         <v>1.629330425607872e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>276620.6373209779</v>
+        <v>378898.8796207259</v>
       </c>
     </row>
     <row r="4">
@@ -17307,28 +17307,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.9118116175287</v>
+        <v>305.5501570779835</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.9977748300283</v>
+        <v>418.0672048356633</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.8892152674061</v>
+        <v>378.167457567154</v>
       </c>
       <c r="AD4" t="n">
-        <v>222911.8116175287</v>
+        <v>305550.1570779835</v>
       </c>
       <c r="AE4" t="n">
-        <v>304997.7748300283</v>
+        <v>418067.2048356633</v>
       </c>
       <c r="AF4" t="n">
         <v>1.638726166174499e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>275889.2152674061</v>
+        <v>378167.457567154</v>
       </c>
     </row>
   </sheetData>
@@ -17604,28 +17604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.8658345445961</v>
+        <v>562.0698820961179</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.4249109323283</v>
+        <v>769.0488094570389</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.5527790819692</v>
+        <v>695.6518704492416</v>
       </c>
       <c r="AD2" t="n">
-        <v>427865.834544596</v>
+        <v>562069.8820961179</v>
       </c>
       <c r="AE2" t="n">
-        <v>585424.9109323283</v>
+        <v>769048.809457039</v>
       </c>
       <c r="AF2" t="n">
         <v>6.929117172344909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.94444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>529552.7790819692</v>
+        <v>695651.8704492416</v>
       </c>
     </row>
     <row r="3">
@@ -17710,28 +17710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.2532019924448</v>
+        <v>432.7260836119683</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.7622683583958</v>
+        <v>592.0749181253631</v>
       </c>
       <c r="AC3" t="n">
-        <v>405.0284659045604</v>
+        <v>535.5681189218443</v>
       </c>
       <c r="AD3" t="n">
-        <v>327253.2019924448</v>
+        <v>432726.0836119683</v>
       </c>
       <c r="AE3" t="n">
-        <v>447762.2683583958</v>
+        <v>592074.9181253631</v>
       </c>
       <c r="AF3" t="n">
         <v>8.640785137078352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.6087962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>405028.4659045604</v>
+        <v>535568.1189218443</v>
       </c>
     </row>
     <row r="4">
@@ -17816,28 +17816,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.2839524233299</v>
+        <v>400.1010704515559</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.3347277661592</v>
+        <v>547.4359358052881</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.6003256776166</v>
+        <v>495.189418423192</v>
       </c>
       <c r="AD4" t="n">
-        <v>304283.9524233299</v>
+        <v>400101.0704515559</v>
       </c>
       <c r="AE4" t="n">
-        <v>416334.7277661592</v>
+        <v>547435.935805288</v>
       </c>
       <c r="AF4" t="n">
         <v>9.26920880779536e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.15046296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>376600.3256776166</v>
+        <v>495189.418423192</v>
       </c>
     </row>
     <row r="5">
@@ -17922,28 +17922,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>288.5601393732013</v>
+        <v>384.3430919826466</v>
       </c>
       <c r="AB5" t="n">
-        <v>394.8207130652995</v>
+        <v>525.8751744711805</v>
       </c>
       <c r="AC5" t="n">
-        <v>357.1395783446977</v>
+        <v>475.6863858900932</v>
       </c>
       <c r="AD5" t="n">
-        <v>288560.1393732013</v>
+        <v>384343.0919826466</v>
       </c>
       <c r="AE5" t="n">
-        <v>394820.7130652995</v>
+        <v>525875.1744711804</v>
       </c>
       <c r="AF5" t="n">
         <v>9.57849973892874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.49074074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>357139.5783446977</v>
+        <v>475686.3858900932</v>
       </c>
     </row>
     <row r="6">
@@ -18028,28 +18028,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>284.8289162131985</v>
+        <v>371.0917558766122</v>
       </c>
       <c r="AB6" t="n">
-        <v>389.7154889278352</v>
+        <v>507.7441118032148</v>
       </c>
       <c r="AC6" t="n">
-        <v>352.5215896336859</v>
+        <v>459.2857263960518</v>
       </c>
       <c r="AD6" t="n">
-        <v>284828.9162131984</v>
+        <v>371091.7558766123</v>
       </c>
       <c r="AE6" t="n">
-        <v>389715.4889278352</v>
+        <v>507744.1118032148</v>
       </c>
       <c r="AF6" t="n">
         <v>9.767591534071317e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.12037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>352521.5896336859</v>
+        <v>459285.7263960518</v>
       </c>
     </row>
     <row r="7">
@@ -18134,28 +18134,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>272.1702711790787</v>
+        <v>368.0205435962284</v>
       </c>
       <c r="AB7" t="n">
-        <v>372.3953723321479</v>
+        <v>503.5419436688704</v>
       </c>
       <c r="AC7" t="n">
-        <v>336.8544806569546</v>
+        <v>455.4846072906691</v>
       </c>
       <c r="AD7" t="n">
-        <v>272170.2711790787</v>
+        <v>368020.5435962284</v>
       </c>
       <c r="AE7" t="n">
-        <v>372395.3723321479</v>
+        <v>503541.9436688704</v>
       </c>
       <c r="AF7" t="n">
         <v>9.908119651451166e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.8425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>336854.4806569546</v>
+        <v>455484.6072906692</v>
       </c>
     </row>
     <row r="8">
@@ -18240,28 +18240,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>270.5670843061955</v>
+        <v>366.4173567233452</v>
       </c>
       <c r="AB8" t="n">
-        <v>370.2018213250559</v>
+        <v>501.3483926617784</v>
       </c>
       <c r="AC8" t="n">
-        <v>334.8702790793113</v>
+        <v>453.5004057130259</v>
       </c>
       <c r="AD8" t="n">
-        <v>270567.0843061954</v>
+        <v>366417.3567233452</v>
       </c>
       <c r="AE8" t="n">
-        <v>370201.8213250559</v>
+        <v>501348.3926617784</v>
       </c>
       <c r="AF8" t="n">
         <v>9.964911726442793e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.73842592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>334870.2790793114</v>
+        <v>453500.4057130259</v>
       </c>
     </row>
     <row r="9">
@@ -18346,28 +18346,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>268.6607708787581</v>
+        <v>364.5110432959078</v>
       </c>
       <c r="AB9" t="n">
-        <v>367.5935191930233</v>
+        <v>498.7400905297458</v>
       </c>
       <c r="AC9" t="n">
-        <v>332.5109096419848</v>
+        <v>451.1410362756994</v>
       </c>
       <c r="AD9" t="n">
-        <v>268660.7708787581</v>
+        <v>364511.0432959078</v>
       </c>
       <c r="AE9" t="n">
-        <v>367593.5191930233</v>
+        <v>498740.0905297458</v>
       </c>
       <c r="AF9" t="n">
         <v>1.003412706783884e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>332510.9096419849</v>
+        <v>451141.0362756994</v>
       </c>
     </row>
     <row r="10">
@@ -18452,28 +18452,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>266.8553175353564</v>
+        <v>353.0839917799894</v>
       </c>
       <c r="AB10" t="n">
-        <v>365.123218277601</v>
+        <v>483.1050945197327</v>
       </c>
       <c r="AC10" t="n">
-        <v>330.2763707788413</v>
+        <v>436.9982223410274</v>
       </c>
       <c r="AD10" t="n">
-        <v>266855.3175353564</v>
+        <v>353083.9917799894</v>
       </c>
       <c r="AE10" t="n">
-        <v>365123.218277601</v>
+        <v>483105.0945197328</v>
       </c>
       <c r="AF10" t="n">
         <v>1.011092544197524e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.47222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>330276.3707788413</v>
+        <v>436998.2223410273</v>
       </c>
     </row>
     <row r="11">
@@ -18558,28 +18558,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>265.3864093735585</v>
+        <v>351.6150836181915</v>
       </c>
       <c r="AB11" t="n">
-        <v>363.1133933269747</v>
+        <v>481.0952695691064</v>
       </c>
       <c r="AC11" t="n">
-        <v>328.4583607006958</v>
+        <v>435.1802122628818</v>
       </c>
       <c r="AD11" t="n">
-        <v>265386.4093735585</v>
+        <v>351615.0836181915</v>
       </c>
       <c r="AE11" t="n">
-        <v>363113.3933269747</v>
+        <v>481095.2695691064</v>
       </c>
       <c r="AF11" t="n">
         <v>1.015174474587548e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.39120370370371</v>
       </c>
       <c r="AH11" t="n">
-        <v>328458.3607006958</v>
+        <v>435180.2122628818</v>
       </c>
     </row>
     <row r="12">
@@ -18664,28 +18664,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>263.986969660788</v>
+        <v>350.215643905421</v>
       </c>
       <c r="AB12" t="n">
-        <v>361.1986181730392</v>
+        <v>479.180494415171</v>
       </c>
       <c r="AC12" t="n">
-        <v>326.7263290000481</v>
+        <v>433.4481805622341</v>
       </c>
       <c r="AD12" t="n">
-        <v>263986.969660788</v>
+        <v>350215.643905421</v>
       </c>
       <c r="AE12" t="n">
-        <v>361198.6181730392</v>
+        <v>479180.494415171</v>
       </c>
       <c r="AF12" t="n">
         <v>1.018449699366894e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>326726.3290000481</v>
+        <v>433448.1805622341</v>
       </c>
     </row>
     <row r="13">
@@ -18770,28 +18770,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>262.8592601029723</v>
+        <v>349.0879343476053</v>
       </c>
       <c r="AB13" t="n">
-        <v>359.6556362050013</v>
+        <v>477.6375124471331</v>
       </c>
       <c r="AC13" t="n">
-        <v>325.330607065451</v>
+        <v>432.052458627637</v>
       </c>
       <c r="AD13" t="n">
-        <v>262859.2601029723</v>
+        <v>349087.9343476053</v>
       </c>
       <c r="AE13" t="n">
-        <v>359655.6362050013</v>
+        <v>477637.5124471331</v>
       </c>
       <c r="AF13" t="n">
         <v>1.021434510126397e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.28703703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>325330.607065451</v>
+        <v>432052.458627637</v>
       </c>
     </row>
     <row r="14">
@@ -18876,28 +18876,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>261.3994241965544</v>
+        <v>347.6280984411874</v>
       </c>
       <c r="AB14" t="n">
-        <v>357.6582243144255</v>
+        <v>475.6401005565573</v>
       </c>
       <c r="AC14" t="n">
-        <v>323.5238253623265</v>
+        <v>430.2456769245126</v>
       </c>
       <c r="AD14" t="n">
-        <v>261399.4241965544</v>
+        <v>347628.0984411874</v>
       </c>
       <c r="AE14" t="n">
-        <v>357658.2243144255</v>
+        <v>475640.1005565573</v>
       </c>
       <c r="AF14" t="n">
         <v>1.025806854536264e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.20601851851852</v>
       </c>
       <c r="AH14" t="n">
-        <v>323523.8253623265</v>
+        <v>430245.6769245125</v>
       </c>
     </row>
     <row r="15">
@@ -18982,28 +18982,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>261.690761446989</v>
+        <v>347.9194356916221</v>
       </c>
       <c r="AB15" t="n">
-        <v>358.0568447933626</v>
+        <v>476.0387210354944</v>
       </c>
       <c r="AC15" t="n">
-        <v>323.8844020622212</v>
+        <v>430.6062536244072</v>
       </c>
       <c r="AD15" t="n">
-        <v>261690.7614469891</v>
+        <v>347919.4356916221</v>
       </c>
       <c r="AE15" t="n">
-        <v>358056.8447933627</v>
+        <v>476038.7210354944</v>
       </c>
       <c r="AF15" t="n">
         <v>1.024854941915666e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.21759259259259</v>
       </c>
       <c r="AH15" t="n">
-        <v>323884.4020622212</v>
+        <v>430606.2536244072</v>
       </c>
     </row>
   </sheetData>
@@ -19279,28 +19279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.9346778172024</v>
+        <v>623.6668688998707</v>
       </c>
       <c r="AB2" t="n">
-        <v>655.2995552962649</v>
+        <v>853.328524269202</v>
       </c>
       <c r="AC2" t="n">
-        <v>592.7586854574909</v>
+        <v>771.8880475670545</v>
       </c>
       <c r="AD2" t="n">
-        <v>478934.6778172024</v>
+        <v>623666.8688998707</v>
       </c>
       <c r="AE2" t="n">
-        <v>655299.5552962649</v>
+        <v>853328.524269202</v>
       </c>
       <c r="AF2" t="n">
         <v>6.12928914497362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.76157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>592758.6854574909</v>
+        <v>771888.0475670545</v>
       </c>
     </row>
     <row r="3">
@@ -19385,28 +19385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.0778572504333</v>
+        <v>459.1725322104583</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.0967009857576</v>
+        <v>628.2601158327851</v>
       </c>
       <c r="AC3" t="n">
-        <v>436.9906298741544</v>
+        <v>568.299852146314</v>
       </c>
       <c r="AD3" t="n">
-        <v>353077.8572504333</v>
+        <v>459172.5322104583</v>
       </c>
       <c r="AE3" t="n">
-        <v>483096.7009857576</v>
+        <v>628260.1158327851</v>
       </c>
       <c r="AF3" t="n">
         <v>7.873182851314289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.38425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>436990.6298741544</v>
+        <v>568299.852146314</v>
       </c>
     </row>
     <row r="4">
@@ -19491,28 +19491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.5811733440257</v>
+        <v>423.7090026929743</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.5285720618398</v>
+        <v>579.7373502064611</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.0577750089383</v>
+        <v>524.408031169237</v>
       </c>
       <c r="AD4" t="n">
-        <v>317581.1733440257</v>
+        <v>423709.0026929743</v>
       </c>
       <c r="AE4" t="n">
-        <v>434528.5720618399</v>
+        <v>579737.350206461</v>
       </c>
       <c r="AF4" t="n">
         <v>8.513265398493558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.70601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>393057.7750089383</v>
+        <v>524408.031169237</v>
       </c>
     </row>
     <row r="5">
@@ -19597,28 +19597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>300.2762997392045</v>
+        <v>406.3699636693723</v>
       </c>
       <c r="AB5" t="n">
-        <v>410.8512805585808</v>
+        <v>556.0133120699542</v>
       </c>
       <c r="AC5" t="n">
-        <v>371.6402109754629</v>
+        <v>502.9481819355816</v>
       </c>
       <c r="AD5" t="n">
-        <v>300276.2997392045</v>
+        <v>406369.9636693723</v>
       </c>
       <c r="AE5" t="n">
-        <v>410851.2805585808</v>
+        <v>556013.3120699541</v>
       </c>
       <c r="AF5" t="n">
         <v>8.849373459788979e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.91898148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>371640.2109754629</v>
+        <v>502948.1819355816</v>
       </c>
     </row>
     <row r="6">
@@ -19703,28 +19703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>295.4856055032582</v>
+        <v>391.8950246110725</v>
       </c>
       <c r="AB6" t="n">
-        <v>404.2964413544458</v>
+        <v>536.2080618611465</v>
       </c>
       <c r="AC6" t="n">
-        <v>365.7109564251959</v>
+        <v>485.0331170098594</v>
       </c>
       <c r="AD6" t="n">
-        <v>295485.6055032582</v>
+        <v>391895.0246110725</v>
       </c>
       <c r="AE6" t="n">
-        <v>404296.4413544458</v>
+        <v>536208.0618611465</v>
       </c>
       <c r="AF6" t="n">
         <v>9.070348900178491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.43287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>365710.956425196</v>
+        <v>485033.1170098594</v>
       </c>
     </row>
     <row r="7">
@@ -19809,28 +19809,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>292.8204024800843</v>
+        <v>389.2298215878986</v>
       </c>
       <c r="AB7" t="n">
-        <v>400.6497929976803</v>
+        <v>532.561413504381</v>
       </c>
       <c r="AC7" t="n">
-        <v>362.4123390694971</v>
+        <v>481.7344996541605</v>
       </c>
       <c r="AD7" t="n">
-        <v>292820.4024800843</v>
+        <v>389229.8215878986</v>
       </c>
       <c r="AE7" t="n">
-        <v>400649.7929976803</v>
+        <v>532561.413504381</v>
       </c>
       <c r="AF7" t="n">
         <v>9.189441108575871e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.17824074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>362412.3390694971</v>
+        <v>481734.4996541605</v>
       </c>
     </row>
     <row r="8">
@@ -19915,28 +19915,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>280.510513009937</v>
+        <v>376.9872519254557</v>
       </c>
       <c r="AB8" t="n">
-        <v>383.8068591506295</v>
+        <v>515.8105895881716</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.1768711896027</v>
+        <v>466.5823508625851</v>
       </c>
       <c r="AD8" t="n">
-        <v>280510.513009937</v>
+        <v>376987.2519254556</v>
       </c>
       <c r="AE8" t="n">
-        <v>383806.8591506295</v>
+        <v>515810.5895881717</v>
       </c>
       <c r="AF8" t="n">
         <v>9.296045387192454e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>347176.8711896027</v>
+        <v>466582.3508625851</v>
       </c>
     </row>
     <row r="9">
@@ -20021,28 +20021,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>278.863654494312</v>
+        <v>375.3403934098308</v>
       </c>
       <c r="AB9" t="n">
-        <v>381.5535546752814</v>
+        <v>513.5572851128237</v>
       </c>
       <c r="AC9" t="n">
-        <v>345.1386189308491</v>
+        <v>464.5440986038316</v>
       </c>
       <c r="AD9" t="n">
-        <v>278863.654494312</v>
+        <v>375340.3934098308</v>
       </c>
       <c r="AE9" t="n">
-        <v>381553.5546752814</v>
+        <v>513557.2851128237</v>
       </c>
       <c r="AF9" t="n">
         <v>9.358637327923046e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.83101851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>345138.6189308491</v>
+        <v>464544.0986038316</v>
       </c>
     </row>
     <row r="10">
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>277.1986155259291</v>
+        <v>373.6753544414478</v>
       </c>
       <c r="AB10" t="n">
-        <v>379.275374902405</v>
+        <v>511.2791053399471</v>
       </c>
       <c r="AC10" t="n">
-        <v>343.0778654380506</v>
+        <v>462.483345111033</v>
       </c>
       <c r="AD10" t="n">
-        <v>277198.6155259291</v>
+        <v>373675.3544414478</v>
       </c>
       <c r="AE10" t="n">
-        <v>379275.374902405</v>
+        <v>511279.1053399472</v>
       </c>
       <c r="AF10" t="n">
         <v>9.420924685000448e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>343077.8654380506</v>
+        <v>462483.345111033</v>
       </c>
     </row>
     <row r="11">
@@ -20233,28 +20233,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>275.6913280306895</v>
+        <v>372.1680669462082</v>
       </c>
       <c r="AB11" t="n">
-        <v>377.213037654587</v>
+        <v>509.2167680921292</v>
       </c>
       <c r="AC11" t="n">
-        <v>341.2123547626559</v>
+        <v>460.6178344356383</v>
       </c>
       <c r="AD11" t="n">
-        <v>275691.3280306896</v>
+        <v>372168.0669462082</v>
       </c>
       <c r="AE11" t="n">
-        <v>377213.037654587</v>
+        <v>509216.7680921292</v>
       </c>
       <c r="AF11" t="n">
         <v>9.466764524805577e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.62268518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>341212.3547626559</v>
+        <v>460617.8344356383</v>
       </c>
     </row>
     <row r="12">
@@ -20339,28 +20339,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>274.6328435518871</v>
+        <v>371.1095824674057</v>
       </c>
       <c r="AB12" t="n">
-        <v>375.76477249365</v>
+        <v>507.7685029311922</v>
       </c>
       <c r="AC12" t="n">
-        <v>339.9023099960257</v>
+        <v>459.3077896690082</v>
       </c>
       <c r="AD12" t="n">
-        <v>274632.8435518871</v>
+        <v>371109.5824674057</v>
       </c>
       <c r="AE12" t="n">
-        <v>375764.77249365</v>
+        <v>507768.5029311922</v>
       </c>
       <c r="AF12" t="n">
         <v>9.492501843500153e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH12" t="n">
-        <v>339902.3099960257</v>
+        <v>459307.7896690082</v>
       </c>
     </row>
     <row r="13">
@@ -20445,28 +20445,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>273.2864649137743</v>
+        <v>369.6617186028078</v>
       </c>
       <c r="AB13" t="n">
-        <v>373.9225978429506</v>
+        <v>505.7874717164036</v>
       </c>
       <c r="AC13" t="n">
-        <v>338.2359499084807</v>
+        <v>457.5158252929642</v>
       </c>
       <c r="AD13" t="n">
-        <v>273286.4649137743</v>
+        <v>369661.7186028078</v>
       </c>
       <c r="AE13" t="n">
-        <v>373922.5978429506</v>
+        <v>505787.4717164036</v>
       </c>
       <c r="AF13" t="n">
         <v>9.532706885721263e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.49537037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>338235.9499084807</v>
+        <v>457515.8252929642</v>
       </c>
     </row>
     <row r="14">
@@ -20551,28 +20551,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>271.8901740574893</v>
+        <v>358.6826681506544</v>
       </c>
       <c r="AB14" t="n">
-        <v>372.0121310933764</v>
+        <v>490.7654505262459</v>
       </c>
       <c r="AC14" t="n">
-        <v>336.507815424129</v>
+        <v>443.9274847216562</v>
       </c>
       <c r="AD14" t="n">
-        <v>271890.1740574893</v>
+        <v>358682.6681506544</v>
       </c>
       <c r="AE14" t="n">
-        <v>372012.1310933764</v>
+        <v>490765.4505262459</v>
       </c>
       <c r="AF14" t="n">
         <v>9.573825678901945e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH14" t="n">
-        <v>336507.815424129</v>
+        <v>443927.4847216562</v>
       </c>
     </row>
     <row r="15">
@@ -20657,28 +20657,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>270.2396260419728</v>
+        <v>357.0321201351379</v>
       </c>
       <c r="AB15" t="n">
-        <v>369.7537784815074</v>
+        <v>488.507097914377</v>
       </c>
       <c r="AC15" t="n">
-        <v>334.4649968159191</v>
+        <v>441.8846661134462</v>
       </c>
       <c r="AD15" t="n">
-        <v>270239.6260419728</v>
+        <v>357032.1201351379</v>
       </c>
       <c r="AE15" t="n">
-        <v>369753.7784815074</v>
+        <v>488507.097914377</v>
       </c>
       <c r="AF15" t="n">
         <v>9.605959254313513e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.34490740740741</v>
       </c>
       <c r="AH15" t="n">
-        <v>334464.9968159191</v>
+        <v>441884.6661134462</v>
       </c>
     </row>
     <row r="16">
@@ -20763,28 +20763,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>269.8776542283968</v>
+        <v>356.6701483215618</v>
       </c>
       <c r="AB16" t="n">
-        <v>369.2585126771034</v>
+        <v>488.0118321099729</v>
       </c>
       <c r="AC16" t="n">
-        <v>334.0169984847773</v>
+        <v>441.4366677823045</v>
       </c>
       <c r="AD16" t="n">
-        <v>269877.6542283968</v>
+        <v>356670.1483215619</v>
       </c>
       <c r="AE16" t="n">
-        <v>369258.5126771034</v>
+        <v>488011.8321099729</v>
       </c>
       <c r="AF16" t="n">
         <v>9.60139049951566e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH16" t="n">
-        <v>334016.9984847773</v>
+        <v>441436.6677823045</v>
       </c>
     </row>
     <row r="17">
@@ -20869,28 +20869,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>268.3890222706553</v>
+        <v>355.1815163638204</v>
       </c>
       <c r="AB17" t="n">
-        <v>367.2217007587146</v>
+        <v>485.975020191584</v>
       </c>
       <c r="AC17" t="n">
-        <v>332.1745770371961</v>
+        <v>439.5942463347232</v>
       </c>
       <c r="AD17" t="n">
-        <v>268389.0222706553</v>
+        <v>355181.5163638204</v>
       </c>
       <c r="AE17" t="n">
-        <v>367221.7007587146</v>
+        <v>485975.020191584</v>
       </c>
       <c r="AF17" t="n">
         <v>9.630325946568732e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.29861111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>332174.5770371961</v>
+        <v>439594.2463347232</v>
       </c>
     </row>
     <row r="18">
@@ -20975,28 +20975,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>268.7929505929122</v>
+        <v>355.5854446860773</v>
       </c>
       <c r="AB18" t="n">
-        <v>367.7743733092863</v>
+        <v>486.5276927421559</v>
       </c>
       <c r="AC18" t="n">
-        <v>332.6745032952221</v>
+        <v>440.0941725927493</v>
       </c>
       <c r="AD18" t="n">
-        <v>268792.9505929122</v>
+        <v>355585.4446860773</v>
       </c>
       <c r="AE18" t="n">
-        <v>367774.3733092863</v>
+        <v>486527.6927421559</v>
       </c>
       <c r="AF18" t="n">
         <v>9.629259903782566e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.31018518518519</v>
       </c>
       <c r="AH18" t="n">
-        <v>332674.5032952221</v>
+        <v>440094.1725927492</v>
       </c>
     </row>
   </sheetData>
@@ -21272,28 +21272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>590.7344092917596</v>
+        <v>756.6684384780889</v>
       </c>
       <c r="AB2" t="n">
-        <v>808.2688801558055</v>
+        <v>1035.307139381255</v>
       </c>
       <c r="AC2" t="n">
-        <v>731.1288326462328</v>
+        <v>936.4988790614033</v>
       </c>
       <c r="AD2" t="n">
-        <v>590734.4092917596</v>
+        <v>756668.4384780889</v>
       </c>
       <c r="AE2" t="n">
-        <v>808268.8801558055</v>
+        <v>1035307.139381254</v>
       </c>
       <c r="AF2" t="n">
         <v>4.901932059189505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.68518518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>731128.8326462328</v>
+        <v>936498.8790614032</v>
       </c>
     </row>
     <row r="3">
@@ -21378,28 +21378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>396.0996041891373</v>
+        <v>522.9481280496012</v>
       </c>
       <c r="AB3" t="n">
-        <v>541.9609531328142</v>
+        <v>715.5206996406163</v>
       </c>
       <c r="AC3" t="n">
-        <v>490.2369604127929</v>
+        <v>647.2324083065243</v>
       </c>
       <c r="AD3" t="n">
-        <v>396099.6041891373</v>
+        <v>522948.1280496012</v>
       </c>
       <c r="AE3" t="n">
-        <v>541960.9531328143</v>
+        <v>715520.6996406163</v>
       </c>
       <c r="AF3" t="n">
         <v>6.68256497111041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.98148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>490236.9604127929</v>
+        <v>647232.4083065244</v>
       </c>
     </row>
     <row r="4">
@@ -21484,28 +21484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.3337738150343</v>
+        <v>470.4194626987269</v>
       </c>
       <c r="AB4" t="n">
-        <v>483.4468573196867</v>
+        <v>643.6486623063889</v>
       </c>
       <c r="AC4" t="n">
-        <v>437.3073677790209</v>
+        <v>582.2197373424377</v>
       </c>
       <c r="AD4" t="n">
-        <v>353333.7738150343</v>
+        <v>470419.4626987269</v>
       </c>
       <c r="AE4" t="n">
-        <v>483446.8573196867</v>
+        <v>643648.662306389</v>
       </c>
       <c r="AF4" t="n">
         <v>7.355805357572186e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.78240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>437307.3677790209</v>
+        <v>582219.7373424377</v>
       </c>
     </row>
     <row r="5">
@@ -21590,28 +21590,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.3974494894438</v>
+        <v>440.7544688151461</v>
       </c>
       <c r="AB5" t="n">
-        <v>456.1690988488587</v>
+        <v>603.0597089477088</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.6329602920742</v>
+        <v>545.5045367253563</v>
       </c>
       <c r="AD5" t="n">
-        <v>333397.4494894438</v>
+        <v>440754.4688151461</v>
       </c>
       <c r="AE5" t="n">
-        <v>456169.0988488587</v>
+        <v>603059.7089477088</v>
       </c>
       <c r="AF5" t="n">
         <v>7.708277087765828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.78703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>412632.9602920742</v>
+        <v>545504.5367253562</v>
       </c>
     </row>
     <row r="6">
@@ -21696,28 +21696,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>327.1957481546999</v>
+        <v>424.7567781147075</v>
       </c>
       <c r="AB6" t="n">
-        <v>447.683657482909</v>
+        <v>581.1709627630657</v>
       </c>
       <c r="AC6" t="n">
-        <v>404.957357540699</v>
+        <v>525.7048217555271</v>
       </c>
       <c r="AD6" t="n">
-        <v>327195.7481546999</v>
+        <v>424756.7781147075</v>
       </c>
       <c r="AE6" t="n">
-        <v>447683.657482909</v>
+        <v>581170.9627630657</v>
       </c>
       <c r="AF6" t="n">
         <v>7.941550797654393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.17361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>404957.357540699</v>
+        <v>525704.8217555271</v>
       </c>
     </row>
     <row r="7">
@@ -21802,28 +21802,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>313.1577176276971</v>
+        <v>410.7860673954091</v>
       </c>
       <c r="AB7" t="n">
-        <v>428.476204801666</v>
+        <v>562.055620012664</v>
       </c>
       <c r="AC7" t="n">
-        <v>387.5830371855246</v>
+        <v>508.4138204886719</v>
       </c>
       <c r="AD7" t="n">
-        <v>313157.7176276972</v>
+        <v>410786.0673954091</v>
       </c>
       <c r="AE7" t="n">
-        <v>428476.204801666</v>
+        <v>562055.620012664</v>
       </c>
       <c r="AF7" t="n">
         <v>8.099789284540227e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.78009259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>387583.0371855246</v>
+        <v>508413.8204886719</v>
       </c>
     </row>
     <row r="8">
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>310.7040874658044</v>
+        <v>408.3324372335164</v>
       </c>
       <c r="AB8" t="n">
-        <v>425.1190397676411</v>
+        <v>558.6984549786392</v>
       </c>
       <c r="AC8" t="n">
-        <v>384.5462752705364</v>
+        <v>505.3770585736837</v>
       </c>
       <c r="AD8" t="n">
-        <v>310704.0874658044</v>
+        <v>408332.4372335164</v>
       </c>
       <c r="AE8" t="n">
-        <v>425119.0397676412</v>
+        <v>558698.4549786393</v>
       </c>
       <c r="AF8" t="n">
         <v>8.192545003012239e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.56018518518518</v>
       </c>
       <c r="AH8" t="n">
-        <v>384546.2752705364</v>
+        <v>505377.0585736837</v>
       </c>
     </row>
     <row r="9">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>307.757123994247</v>
+        <v>405.2839885354737</v>
       </c>
       <c r="AB9" t="n">
-        <v>421.0868743350036</v>
+        <v>554.5274329819125</v>
       </c>
       <c r="AC9" t="n">
-        <v>380.8989340476101</v>
+        <v>501.6041130622584</v>
       </c>
       <c r="AD9" t="n">
-        <v>307757.1239942469</v>
+        <v>405283.9885354737</v>
       </c>
       <c r="AE9" t="n">
-        <v>421086.8743350036</v>
+        <v>554527.4329819125</v>
       </c>
       <c r="AF9" t="n">
         <v>8.298175768973646e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.30555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>380898.93404761</v>
+        <v>501604.1130622583</v>
       </c>
     </row>
     <row r="10">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>307.0477890135743</v>
+        <v>404.5746535548011</v>
       </c>
       <c r="AB10" t="n">
-        <v>420.1163309207967</v>
+        <v>553.5568895677055</v>
       </c>
       <c r="AC10" t="n">
-        <v>380.0210179346888</v>
+        <v>500.7261969493371</v>
       </c>
       <c r="AD10" t="n">
-        <v>307047.7890135744</v>
+        <v>404574.6535548011</v>
       </c>
       <c r="AE10" t="n">
-        <v>420116.3309207967</v>
+        <v>553556.8895677056</v>
       </c>
       <c r="AF10" t="n">
         <v>8.316865354038904e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>380021.0179346888</v>
+        <v>500726.1969493371</v>
       </c>
     </row>
     <row r="11">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>305.0123178433899</v>
+        <v>392.844678245407</v>
       </c>
       <c r="AB11" t="n">
-        <v>417.3313094670999</v>
+        <v>537.5074198594044</v>
       </c>
       <c r="AC11" t="n">
-        <v>377.5017950197307</v>
+        <v>486.2084661044241</v>
       </c>
       <c r="AD11" t="n">
-        <v>305012.3178433899</v>
+        <v>392844.678245407</v>
       </c>
       <c r="AE11" t="n">
-        <v>417331.3094670998</v>
+        <v>537507.4198594044</v>
       </c>
       <c r="AF11" t="n">
         <v>8.392592783895902e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.09722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>377501.7950197306</v>
+        <v>486208.4661044241</v>
       </c>
     </row>
     <row r="12">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>303.7575009245072</v>
+        <v>391.5898613265243</v>
       </c>
       <c r="AB12" t="n">
-        <v>415.614413600069</v>
+        <v>535.7905239923737</v>
       </c>
       <c r="AC12" t="n">
-        <v>375.9487572845708</v>
+        <v>484.6554283692643</v>
       </c>
       <c r="AD12" t="n">
-        <v>303757.5009245072</v>
+        <v>391589.8613265243</v>
       </c>
       <c r="AE12" t="n">
-        <v>415614.413600069</v>
+        <v>535790.5239923736</v>
       </c>
       <c r="AF12" t="n">
         <v>8.429418188543e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.00462962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>375948.7572845708</v>
+        <v>484655.4283692642</v>
       </c>
     </row>
     <row r="13">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>292.8086509828212</v>
+        <v>390.4028353317524</v>
       </c>
       <c r="AB13" t="n">
-        <v>400.6337140806855</v>
+        <v>534.1663826584359</v>
       </c>
       <c r="AC13" t="n">
-        <v>362.3977947017733</v>
+        <v>483.1862928047407</v>
       </c>
       <c r="AD13" t="n">
-        <v>292808.6509828212</v>
+        <v>390402.8353317524</v>
       </c>
       <c r="AE13" t="n">
-        <v>400633.7140806855</v>
+        <v>534166.3826584358</v>
       </c>
       <c r="AF13" t="n">
         <v>8.45779866956802e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.94675925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>362397.7947017733</v>
+        <v>483186.2928047407</v>
       </c>
     </row>
     <row r="14">
@@ -22544,28 +22544,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>291.7490633089844</v>
+        <v>389.3432476579155</v>
       </c>
       <c r="AB14" t="n">
-        <v>399.1839394796329</v>
+        <v>532.7166080573833</v>
       </c>
       <c r="AC14" t="n">
-        <v>361.0863845538738</v>
+        <v>481.8748826568411</v>
       </c>
       <c r="AD14" t="n">
-        <v>291749.0633089844</v>
+        <v>389343.2476579155</v>
       </c>
       <c r="AE14" t="n">
-        <v>399183.9394796329</v>
+        <v>532716.6080573832</v>
       </c>
       <c r="AF14" t="n">
         <v>8.490470833089505e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.87731481481481</v>
       </c>
       <c r="AH14" t="n">
-        <v>361086.3845538738</v>
+        <v>481874.8826568411</v>
       </c>
     </row>
     <row r="15">
@@ -22650,28 +22650,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>290.654563853219</v>
+        <v>388.2487482021501</v>
       </c>
       <c r="AB15" t="n">
-        <v>397.6863970383465</v>
+        <v>531.2190656160968</v>
       </c>
       <c r="AC15" t="n">
-        <v>359.7317654613697</v>
+        <v>480.520263564337</v>
       </c>
       <c r="AD15" t="n">
-        <v>290654.563853219</v>
+        <v>388248.7482021501</v>
       </c>
       <c r="AE15" t="n">
-        <v>397686.3970383464</v>
+        <v>531219.0656160968</v>
       </c>
       <c r="AF15" t="n">
         <v>8.523835203465258e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.79629629629629</v>
       </c>
       <c r="AH15" t="n">
-        <v>359731.7654613697</v>
+        <v>480520.263564337</v>
       </c>
     </row>
     <row r="16">
@@ -22756,28 +22756,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>289.080116929595</v>
+        <v>386.6743012785261</v>
       </c>
       <c r="AB16" t="n">
-        <v>395.5321692977481</v>
+        <v>529.0648378754985</v>
       </c>
       <c r="AC16" t="n">
-        <v>357.7831341928565</v>
+        <v>478.5716322958237</v>
       </c>
       <c r="AD16" t="n">
-        <v>289080.116929595</v>
+        <v>386674.3012785261</v>
       </c>
       <c r="AE16" t="n">
-        <v>395532.1692977481</v>
+        <v>529064.8378754985</v>
       </c>
       <c r="AF16" t="n">
         <v>8.560799049483207e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>357783.1341928565</v>
+        <v>478571.6322958238</v>
       </c>
     </row>
     <row r="17">
@@ -22862,28 +22862,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>288.9353977722566</v>
+        <v>386.5295821211878</v>
       </c>
       <c r="AB17" t="n">
-        <v>395.3341581621191</v>
+        <v>528.8668267398696</v>
       </c>
       <c r="AC17" t="n">
-        <v>357.6040209621016</v>
+        <v>478.3925190650689</v>
       </c>
       <c r="AD17" t="n">
-        <v>288935.3977722566</v>
+        <v>386529.5821211878</v>
       </c>
       <c r="AE17" t="n">
-        <v>395334.1581621192</v>
+        <v>528866.8267398695</v>
       </c>
       <c r="AF17" t="n">
         <v>8.560799049483207e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>357604.0209621016</v>
+        <v>478392.5190650689</v>
       </c>
     </row>
     <row r="18">
@@ -22968,28 +22968,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>287.4360209780648</v>
+        <v>385.0302053269959</v>
       </c>
       <c r="AB18" t="n">
-        <v>393.2826446844701</v>
+        <v>526.8153132622206</v>
       </c>
       <c r="AC18" t="n">
-        <v>355.7483010514422</v>
+        <v>476.5367991544094</v>
       </c>
       <c r="AD18" t="n">
-        <v>287436.0209780648</v>
+        <v>385030.2053269959</v>
       </c>
       <c r="AE18" t="n">
-        <v>393282.6446844701</v>
+        <v>526815.3132622206</v>
       </c>
       <c r="AF18" t="n">
         <v>8.597209130017742e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.63425925925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>355748.3010514422</v>
+        <v>476536.7991544094</v>
       </c>
     </row>
     <row r="19">
@@ -23074,28 +23074,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>287.1221368967151</v>
+        <v>384.7163212456462</v>
       </c>
       <c r="AB19" t="n">
-        <v>392.8531746367791</v>
+        <v>526.3858432145295</v>
       </c>
       <c r="AC19" t="n">
-        <v>355.3598190223377</v>
+        <v>476.1483171253051</v>
       </c>
       <c r="AD19" t="n">
-        <v>287122.1368967151</v>
+        <v>384716.3212456462</v>
       </c>
       <c r="AE19" t="n">
-        <v>392853.1746367791</v>
+        <v>526385.8432145295</v>
       </c>
       <c r="AF19" t="n">
         <v>8.597070688646891e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.63425925925926</v>
       </c>
       <c r="AH19" t="n">
-        <v>355359.8190223377</v>
+        <v>476148.3171253051</v>
       </c>
     </row>
     <row r="20">
@@ -23180,28 +23180,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>285.4588208390146</v>
+        <v>383.0530051879458</v>
       </c>
       <c r="AB20" t="n">
-        <v>390.5773522263078</v>
+        <v>524.1100208040582</v>
       </c>
       <c r="AC20" t="n">
-        <v>353.301197908585</v>
+        <v>474.0896960115523</v>
       </c>
       <c r="AD20" t="n">
-        <v>285458.8208390146</v>
+        <v>383053.0051879457</v>
       </c>
       <c r="AE20" t="n">
-        <v>390577.3522263078</v>
+        <v>524110.0208040582</v>
       </c>
       <c r="AF20" t="n">
         <v>8.626143376526175e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.57638888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>353301.197908585</v>
+        <v>474089.6960115524</v>
       </c>
     </row>
     <row r="21">
@@ -23286,28 +23286,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>285.5111173705802</v>
+        <v>383.1053017195113</v>
       </c>
       <c r="AB21" t="n">
-        <v>390.6489066479559</v>
+        <v>524.1815752257063</v>
       </c>
       <c r="AC21" t="n">
-        <v>353.3659232766583</v>
+        <v>474.1544213796255</v>
       </c>
       <c r="AD21" t="n">
-        <v>285511.1173705801</v>
+        <v>383105.3017195113</v>
       </c>
       <c r="AE21" t="n">
-        <v>390648.9066479559</v>
+        <v>524181.5752257063</v>
       </c>
       <c r="AF21" t="n">
         <v>8.632234796843741e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH21" t="n">
-        <v>353365.9232766583</v>
+        <v>474154.4213796256</v>
       </c>
     </row>
     <row r="22">
@@ -23392,28 +23392,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>284.7958118356506</v>
+        <v>382.3899961845817</v>
       </c>
       <c r="AB22" t="n">
-        <v>389.6701940580123</v>
+        <v>523.2028626357627</v>
       </c>
       <c r="AC22" t="n">
-        <v>352.4806176426671</v>
+        <v>473.2691157456344</v>
       </c>
       <c r="AD22" t="n">
-        <v>284795.8118356506</v>
+        <v>382389.9961845817</v>
       </c>
       <c r="AE22" t="n">
-        <v>389670.1940580123</v>
+        <v>523202.8626357627</v>
       </c>
       <c r="AF22" t="n">
         <v>8.636941803452767e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>18.55324074074074</v>
       </c>
       <c r="AH22" t="n">
-        <v>352480.6176426671</v>
+        <v>473269.1157456344</v>
       </c>
     </row>
     <row r="23">
@@ -23498,28 +23498,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>283.723941539155</v>
+        <v>381.3181258880861</v>
       </c>
       <c r="AB23" t="n">
-        <v>388.2036138307669</v>
+        <v>521.7362824085172</v>
       </c>
       <c r="AC23" t="n">
-        <v>351.1540057739517</v>
+        <v>471.942503876919</v>
       </c>
       <c r="AD23" t="n">
-        <v>283723.941539155</v>
+        <v>381318.125888086</v>
       </c>
       <c r="AE23" t="n">
-        <v>388203.6138307669</v>
+        <v>521736.2824085172</v>
       </c>
       <c r="AF23" t="n">
         <v>8.633896093293987e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18.55324074074074</v>
       </c>
       <c r="AH23" t="n">
-        <v>351154.0057739517</v>
+        <v>471942.503876919</v>
       </c>
     </row>
     <row r="24">
@@ -23604,28 +23604,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>283.1685472276562</v>
+        <v>380.6612463501021</v>
       </c>
       <c r="AB24" t="n">
-        <v>387.4436988315065</v>
+        <v>520.8375108451676</v>
       </c>
       <c r="AC24" t="n">
-        <v>350.4666159956734</v>
+        <v>471.1295098101417</v>
       </c>
       <c r="AD24" t="n">
-        <v>283168.5472276562</v>
+        <v>380661.2463501021</v>
       </c>
       <c r="AE24" t="n">
-        <v>387443.6988315065</v>
+        <v>520837.5108451676</v>
       </c>
       <c r="AF24" t="n">
         <v>8.668367994636569e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>18.4837962962963</v>
       </c>
       <c r="AH24" t="n">
-        <v>350466.6159956733</v>
+        <v>471129.5098101416</v>
       </c>
     </row>
     <row r="25">
@@ -23710,28 +23710,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>283.2528851337966</v>
+        <v>380.7455842562425</v>
       </c>
       <c r="AB25" t="n">
-        <v>387.5590936754136</v>
+        <v>520.9529056890747</v>
       </c>
       <c r="AC25" t="n">
-        <v>350.5709977176356</v>
+        <v>471.233891532104</v>
       </c>
       <c r="AD25" t="n">
-        <v>283252.8851337966</v>
+        <v>380745.5842562425</v>
       </c>
       <c r="AE25" t="n">
-        <v>387559.0936754136</v>
+        <v>520952.9056890747</v>
       </c>
       <c r="AF25" t="n">
         <v>8.664491636252666e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>18.49537037037037</v>
       </c>
       <c r="AH25" t="n">
-        <v>350570.9977176356</v>
+        <v>471233.891532104</v>
       </c>
     </row>
     <row r="26">
@@ -23816,28 +23816,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>283.5127955737044</v>
+        <v>381.0054946961503</v>
       </c>
       <c r="AB26" t="n">
-        <v>387.9147146057348</v>
+        <v>521.3085266193959</v>
       </c>
       <c r="AC26" t="n">
-        <v>350.8926786854841</v>
+        <v>471.5555724999525</v>
       </c>
       <c r="AD26" t="n">
-        <v>283512.7955737044</v>
+        <v>381005.4946961503</v>
       </c>
       <c r="AE26" t="n">
-        <v>387914.7146057348</v>
+        <v>521308.5266193959</v>
       </c>
       <c r="AF26" t="n">
         <v>8.666568256815472e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18.4837962962963</v>
       </c>
       <c r="AH26" t="n">
-        <v>350892.6786854841</v>
+        <v>471555.5724999525</v>
       </c>
     </row>
   </sheetData>
@@ -24113,28 +24113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.7334028697789</v>
+        <v>513.3885635029725</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.2504356306879</v>
+        <v>702.440881689696</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.3577624757812</v>
+        <v>635.4009098232</v>
       </c>
       <c r="AD2" t="n">
-        <v>389733.4028697789</v>
+        <v>513388.5635029725</v>
       </c>
       <c r="AE2" t="n">
-        <v>533250.4356306879</v>
+        <v>702440.881689696</v>
       </c>
       <c r="AF2" t="n">
         <v>7.898818543048522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.28935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>482357.7624757811</v>
+        <v>635400.9098232</v>
       </c>
     </row>
     <row r="3">
@@ -24219,28 +24219,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.3974753403002</v>
+        <v>407.0804718027861</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.7535665956628</v>
+        <v>556.9854606434975</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.2655069065499</v>
+        <v>503.8275500136851</v>
       </c>
       <c r="AD3" t="n">
-        <v>302397.4753403002</v>
+        <v>407080.4718027861</v>
       </c>
       <c r="AE3" t="n">
-        <v>413753.5665956629</v>
+        <v>556985.4606434975</v>
       </c>
       <c r="AF3" t="n">
         <v>9.548928973928563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.91435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>374265.50690655</v>
+        <v>503827.5500136851</v>
       </c>
     </row>
     <row r="4">
@@ -24325,28 +24325,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.5212356836589</v>
+        <v>377.7186555757195</v>
       </c>
       <c r="AB4" t="n">
-        <v>386.5580186196395</v>
+        <v>516.8113283297145</v>
       </c>
       <c r="AC4" t="n">
-        <v>349.6654638601669</v>
+        <v>467.4875805031807</v>
       </c>
       <c r="AD4" t="n">
-        <v>282521.2356836589</v>
+        <v>377718.6555757195</v>
       </c>
       <c r="AE4" t="n">
-        <v>386558.0186196396</v>
+        <v>516811.3283297145</v>
       </c>
       <c r="AF4" t="n">
         <v>1.01207118269257e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.7337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>349665.463860167</v>
+        <v>467487.5805031807</v>
       </c>
     </row>
     <row r="5">
@@ -24431,28 +24431,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.9874538901614</v>
+        <v>362.6319774040924</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.9864542365536</v>
+        <v>496.1690696780274</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.8165189550454</v>
+        <v>448.8153900456186</v>
       </c>
       <c r="AD5" t="n">
-        <v>276987.4538901614</v>
+        <v>362631.9774040924</v>
       </c>
       <c r="AE5" t="n">
-        <v>378986.4542365536</v>
+        <v>496169.0696780274</v>
       </c>
       <c r="AF5" t="n">
         <v>1.044414106523437e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.12037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>342816.5189550454</v>
+        <v>448815.3900456186</v>
       </c>
     </row>
     <row r="6">
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.9813262943053</v>
+        <v>359.1445807675852</v>
       </c>
       <c r="AB6" t="n">
-        <v>361.1908966700499</v>
+        <v>491.3974597468771</v>
       </c>
       <c r="AC6" t="n">
-        <v>326.7193444264669</v>
+        <v>444.4991758693006</v>
       </c>
       <c r="AD6" t="n">
-        <v>263981.3262943053</v>
+        <v>359144.5807675852</v>
       </c>
       <c r="AE6" t="n">
-        <v>361190.8966700499</v>
+        <v>491397.4597468771</v>
       </c>
       <c r="AF6" t="n">
         <v>1.062363221136084e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.80787037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>326719.3444264669</v>
+        <v>444499.1758693006</v>
       </c>
     </row>
     <row r="7">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>261.3368840684911</v>
+        <v>356.500138541771</v>
       </c>
       <c r="AB7" t="n">
-        <v>357.5726541521337</v>
+        <v>487.7792172289608</v>
       </c>
       <c r="AC7" t="n">
-        <v>323.4464218962253</v>
+        <v>441.226253339059</v>
       </c>
       <c r="AD7" t="n">
-        <v>261336.8840684911</v>
+        <v>356500.138541771</v>
       </c>
       <c r="AE7" t="n">
-        <v>357572.6541521337</v>
+        <v>487779.2172289608</v>
       </c>
       <c r="AF7" t="n">
         <v>1.075859574623671e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>323446.4218962253</v>
+        <v>441226.2533390591</v>
       </c>
     </row>
     <row r="8">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>259.469711359829</v>
+        <v>345.0800694549791</v>
       </c>
       <c r="AB8" t="n">
-        <v>355.0179060782959</v>
+        <v>472.1537748865219</v>
       </c>
       <c r="AC8" t="n">
-        <v>321.1354953929431</v>
+        <v>427.0920812833365</v>
       </c>
       <c r="AD8" t="n">
-        <v>259469.711359829</v>
+        <v>345080.0694549792</v>
       </c>
       <c r="AE8" t="n">
-        <v>355017.9060782959</v>
+        <v>472153.7748865219</v>
       </c>
       <c r="AF8" t="n">
         <v>1.082814856536072e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.44907407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>321135.4953929432</v>
+        <v>427092.0812833365</v>
       </c>
     </row>
     <row r="9">
@@ -24855,28 +24855,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>257.4154968054701</v>
+        <v>343.0258549006235</v>
       </c>
       <c r="AB9" t="n">
-        <v>352.2072390993055</v>
+        <v>469.3431079077024</v>
       </c>
       <c r="AC9" t="n">
-        <v>318.5930745257377</v>
+        <v>424.5496604161796</v>
       </c>
       <c r="AD9" t="n">
-        <v>257415.4968054701</v>
+        <v>343025.8549006235</v>
       </c>
       <c r="AE9" t="n">
-        <v>352207.2390993055</v>
+        <v>469343.1079077024</v>
       </c>
       <c r="AF9" t="n">
         <v>1.091047286988219e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.31018518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>318593.0745257377</v>
+        <v>424549.6604161796</v>
       </c>
     </row>
     <row r="10">
@@ -24961,28 +24961,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>255.7209064462077</v>
+        <v>341.3312645413611</v>
       </c>
       <c r="AB10" t="n">
-        <v>349.8886258097135</v>
+        <v>467.0244946181092</v>
       </c>
       <c r="AC10" t="n">
-        <v>316.4957464343094</v>
+        <v>422.452332324751</v>
       </c>
       <c r="AD10" t="n">
-        <v>255720.9064462077</v>
+        <v>341331.2645413611</v>
       </c>
       <c r="AE10" t="n">
-        <v>349888.6258097134</v>
+        <v>467024.4946181092</v>
       </c>
       <c r="AF10" t="n">
         <v>1.095448271821128e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.24074074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>316495.7464343094</v>
+        <v>422452.332324751</v>
       </c>
     </row>
     <row r="11">
@@ -25067,28 +25067,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>254.1597279891617</v>
+        <v>339.770086084315</v>
       </c>
       <c r="AB11" t="n">
-        <v>347.7525525704515</v>
+        <v>464.8884213788461</v>
       </c>
       <c r="AC11" t="n">
-        <v>314.5635370270043</v>
+        <v>420.5201229174456</v>
       </c>
       <c r="AD11" t="n">
-        <v>254159.7279891617</v>
+        <v>339770.086084315</v>
       </c>
       <c r="AE11" t="n">
-        <v>347752.5525704515</v>
+        <v>464888.4213788462</v>
       </c>
       <c r="AF11" t="n">
         <v>1.098037086428722e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.19444444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>314563.5370270043</v>
+        <v>420520.1229174456</v>
       </c>
     </row>
     <row r="12">
@@ -25173,28 +25173,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>254.0235112048063</v>
+        <v>339.6338692999596</v>
       </c>
       <c r="AB12" t="n">
-        <v>347.5661747566361</v>
+        <v>464.7020435650307</v>
       </c>
       <c r="AC12" t="n">
-        <v>314.3949468501565</v>
+        <v>420.3515327405979</v>
       </c>
       <c r="AD12" t="n">
-        <v>254023.5112048063</v>
+        <v>339633.8692999596</v>
       </c>
       <c r="AE12" t="n">
-        <v>347566.1747566361</v>
+        <v>464702.0435650307</v>
       </c>
       <c r="AF12" t="n">
         <v>1.101350769126441e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.13657407407407</v>
       </c>
       <c r="AH12" t="n">
-        <v>314394.9468501565</v>
+        <v>420351.5327405978</v>
       </c>
     </row>
   </sheetData>
@@ -25470,28 +25470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.95213189105</v>
+        <v>434.7291668960309</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.50911037896</v>
+        <v>594.8156250444152</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.4675391428107</v>
+        <v>538.0472566191485</v>
       </c>
       <c r="AD2" t="n">
-        <v>321952.13189105</v>
+        <v>434729.1668960309</v>
       </c>
       <c r="AE2" t="n">
-        <v>440509.11037896</v>
+        <v>594815.6250444152</v>
       </c>
       <c r="AF2" t="n">
         <v>9.888346957298982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.97453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>398467.5391428107</v>
+        <v>538047.2566191484</v>
       </c>
     </row>
     <row r="3">
@@ -25576,28 +25576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.1803120033244</v>
+        <v>372.5222482208778</v>
       </c>
       <c r="AB3" t="n">
-        <v>368.3043782801916</v>
+        <v>509.701374537507</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.1539253355708</v>
+        <v>461.0561907220188</v>
       </c>
       <c r="AD3" t="n">
-        <v>269180.3120033244</v>
+        <v>372522.2482208778</v>
       </c>
       <c r="AE3" t="n">
-        <v>368304.3782801916</v>
+        <v>509701.374537507</v>
       </c>
       <c r="AF3" t="n">
         <v>1.143494659154669e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.86111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>333153.9253355708</v>
+        <v>461056.1907220188</v>
       </c>
     </row>
     <row r="4">
@@ -25682,28 +25682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.1794927986281</v>
+        <v>346.1546610663186</v>
       </c>
       <c r="AB4" t="n">
-        <v>345.0431074209539</v>
+        <v>473.6240785367925</v>
       </c>
       <c r="AC4" t="n">
-        <v>312.1126775198438</v>
+        <v>428.4220612168094</v>
       </c>
       <c r="AD4" t="n">
-        <v>252179.4927986281</v>
+        <v>346154.6610663186</v>
       </c>
       <c r="AE4" t="n">
-        <v>345043.1074209539</v>
+        <v>473624.0785367925</v>
       </c>
       <c r="AF4" t="n">
         <v>1.198639247052601e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.94675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>312112.6775198438</v>
+        <v>428422.0612168094</v>
       </c>
     </row>
     <row r="5">
@@ -25788,28 +25788,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.0110618901917</v>
+        <v>341.9862301578822</v>
       </c>
       <c r="AB5" t="n">
-        <v>339.3396763538413</v>
+        <v>467.920647469677</v>
       </c>
       <c r="AC5" t="n">
-        <v>306.9535739089587</v>
+        <v>423.2629576059236</v>
       </c>
       <c r="AD5" t="n">
-        <v>248011.0618901917</v>
+        <v>341986.2301578821</v>
       </c>
       <c r="AE5" t="n">
-        <v>339339.6763538413</v>
+        <v>467920.647469677</v>
       </c>
       <c r="AF5" t="n">
         <v>1.226466658312127e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>306953.5739089588</v>
+        <v>423262.9576059236</v>
       </c>
     </row>
     <row r="6">
@@ -25894,28 +25894,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>245.4530356108606</v>
+        <v>329.9941161209806</v>
       </c>
       <c r="AB6" t="n">
-        <v>335.8396719463075</v>
+        <v>451.5125079896557</v>
       </c>
       <c r="AC6" t="n">
-        <v>303.7876050097919</v>
+        <v>408.4207879289072</v>
       </c>
       <c r="AD6" t="n">
-        <v>245453.0356108607</v>
+        <v>329994.1161209806</v>
       </c>
       <c r="AE6" t="n">
-        <v>335839.6719463075</v>
+        <v>451512.5079896557</v>
       </c>
       <c r="AF6" t="n">
         <v>1.240674730069459e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.31018518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>303787.6050097919</v>
+        <v>408420.7879289072</v>
       </c>
     </row>
     <row r="7">
@@ -26000,28 +26000,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.9499575814422</v>
+        <v>327.4910380915622</v>
       </c>
       <c r="AB7" t="n">
-        <v>332.41485015845</v>
+        <v>448.0876862017964</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.6896434065988</v>
+        <v>405.3228263257137</v>
       </c>
       <c r="AD7" t="n">
-        <v>242949.9575814423</v>
+        <v>327491.0380915622</v>
       </c>
       <c r="AE7" t="n">
-        <v>332414.85015845</v>
+        <v>448087.6862017964</v>
       </c>
       <c r="AF7" t="n">
         <v>1.252861487750817e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>300689.6434065988</v>
+        <v>405322.8263257137</v>
       </c>
     </row>
     <row r="8">
@@ -26106,28 +26106,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>242.463687721936</v>
+        <v>327.0047682320558</v>
       </c>
       <c r="AB8" t="n">
-        <v>331.7495142839616</v>
+        <v>447.4223503273078</v>
       </c>
       <c r="AC8" t="n">
-        <v>300.0878062541667</v>
+        <v>404.7209891732813</v>
       </c>
       <c r="AD8" t="n">
-        <v>242463.687721936</v>
+        <v>327004.7682320558</v>
       </c>
       <c r="AE8" t="n">
-        <v>331749.5142839616</v>
+        <v>447422.3503273078</v>
       </c>
       <c r="AF8" t="n">
         <v>1.255079045911837e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.10185185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>300087.8062541666</v>
+        <v>404720.9891732814</v>
       </c>
     </row>
   </sheetData>
@@ -49096,28 +49096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.620491009529</v>
+        <v>389.9861326037044</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.535044719763</v>
+        <v>533.5962316022935</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.9766123816123</v>
+        <v>482.6705561651847</v>
       </c>
       <c r="AD2" t="n">
-        <v>287620.491009529</v>
+        <v>389986.1326037044</v>
       </c>
       <c r="AE2" t="n">
-        <v>393535.044719763</v>
+        <v>533596.2316022936</v>
       </c>
       <c r="AF2" t="n">
         <v>1.186317969917866e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.50462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>355976.6123816122</v>
+        <v>482670.5561651847</v>
       </c>
     </row>
     <row r="3">
@@ -49202,28 +49202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.2898599693297</v>
+        <v>345.2480489193706</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.1941166529637</v>
+        <v>472.3836118004332</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.2492746426934</v>
+        <v>427.2999828847624</v>
       </c>
       <c r="AD3" t="n">
-        <v>252289.8599693297</v>
+        <v>345248.0489193706</v>
       </c>
       <c r="AE3" t="n">
-        <v>345194.1166529637</v>
+        <v>472383.6118004332</v>
       </c>
       <c r="AF3" t="n">
         <v>1.331356956319543e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.15509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>312249.2746426933</v>
+        <v>427299.9828847623</v>
       </c>
     </row>
     <row r="4">
@@ -49308,28 +49308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.1084350825169</v>
+        <v>320.7948220336861</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.4222213656398</v>
+        <v>438.9256279752074</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.4598198880469</v>
+        <v>397.0351820772408</v>
       </c>
       <c r="AD4" t="n">
-        <v>237108.4350825169</v>
+        <v>320794.8220336861</v>
       </c>
       <c r="AE4" t="n">
-        <v>324422.2213656398</v>
+        <v>438925.6279752073</v>
       </c>
       <c r="AF4" t="n">
         <v>1.381826380245974e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.46064814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>293459.8198880469</v>
+        <v>397035.1820772408</v>
       </c>
     </row>
     <row r="5">
@@ -49414,28 +49414,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.8452142750115</v>
+        <v>317.5316012261807</v>
       </c>
       <c r="AB5" t="n">
-        <v>319.9573386936716</v>
+        <v>434.4607453032368</v>
       </c>
       <c r="AC5" t="n">
-        <v>289.4210593517878</v>
+        <v>392.996421540981</v>
       </c>
       <c r="AD5" t="n">
-        <v>233845.2142750115</v>
+        <v>317531.6012261807</v>
       </c>
       <c r="AE5" t="n">
-        <v>319957.3386936716</v>
+        <v>434460.7453032368</v>
       </c>
       <c r="AF5" t="n">
         <v>1.401948032667298e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.19444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>289421.0593517878</v>
+        <v>392996.421540981</v>
       </c>
     </row>
     <row r="6">
@@ -49520,28 +49520,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.8115506200596</v>
+        <v>317.4979375712288</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.9112785958309</v>
+        <v>434.414685205396</v>
       </c>
       <c r="AC6" t="n">
-        <v>289.3793951650392</v>
+        <v>392.9547573542324</v>
       </c>
       <c r="AD6" t="n">
-        <v>233811.5506200596</v>
+        <v>317497.9375712288</v>
       </c>
       <c r="AE6" t="n">
-        <v>319911.2785958309</v>
+        <v>434414.685205396</v>
       </c>
       <c r="AF6" t="n">
         <v>1.404923304383485e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.15972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>289379.3951650392</v>
+        <v>392954.7573542324</v>
       </c>
     </row>
   </sheetData>
@@ -49817,28 +49817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.3995324341342</v>
+        <v>320.4752017295413</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.8745606693457</v>
+        <v>438.4883093744237</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.918813124869</v>
+        <v>396.6396005499355</v>
       </c>
       <c r="AD2" t="n">
-        <v>229399.5324341342</v>
+        <v>320475.2017295413</v>
       </c>
       <c r="AE2" t="n">
-        <v>313874.5606693457</v>
+        <v>438488.3093744237</v>
       </c>
       <c r="AF2" t="n">
         <v>1.747958262540996e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.30555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>283918.813124869</v>
+        <v>396639.6005499355</v>
       </c>
     </row>
     <row r="3">
@@ -49923,28 +49923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.9645384514691</v>
+        <v>307.1075275545804</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.4922091921694</v>
+        <v>420.1980678280795</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.2908474728762</v>
+        <v>380.094953986259</v>
       </c>
       <c r="AD3" t="n">
-        <v>215964.5384514691</v>
+        <v>307107.5275545804</v>
       </c>
       <c r="AE3" t="n">
-        <v>295492.2091921694</v>
+        <v>420198.0678280795</v>
       </c>
       <c r="AF3" t="n">
         <v>1.817332095896802e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>267290.8474728762</v>
+        <v>380094.953986259</v>
       </c>
     </row>
   </sheetData>
@@ -50220,28 +50220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.6973088843347</v>
+        <v>595.9355059300309</v>
       </c>
       <c r="AB2" t="n">
-        <v>618.0321854944048</v>
+        <v>815.385250032478</v>
       </c>
       <c r="AC2" t="n">
-        <v>559.0480611244382</v>
+        <v>737.5660261697634</v>
       </c>
       <c r="AD2" t="n">
-        <v>451697.3088843348</v>
+        <v>595935.505930031</v>
       </c>
       <c r="AE2" t="n">
-        <v>618032.1854944048</v>
+        <v>815385.250032478</v>
       </c>
       <c r="AF2" t="n">
         <v>6.53542184102431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.73148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>559048.0611244382</v>
+        <v>737566.0261697634</v>
       </c>
     </row>
     <row r="3">
@@ -50326,28 +50326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.0674935518846</v>
+        <v>450.8249608585693</v>
       </c>
       <c r="AB3" t="n">
-        <v>472.1365679810982</v>
+        <v>616.8386004402738</v>
       </c>
       <c r="AC3" t="n">
-        <v>427.0765165808164</v>
+        <v>557.9683901526664</v>
       </c>
       <c r="AD3" t="n">
-        <v>345067.4935518846</v>
+        <v>450824.9608585694</v>
       </c>
       <c r="AE3" t="n">
-        <v>472136.5679810982</v>
+        <v>616838.6004402738</v>
       </c>
       <c r="AF3" t="n">
         <v>8.236454222159231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.00231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>427076.5165808164</v>
+        <v>557968.3901526664</v>
       </c>
     </row>
     <row r="4">
@@ -50432,28 +50432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.3686219235081</v>
+        <v>417.0577583926312</v>
       </c>
       <c r="AB4" t="n">
-        <v>426.0282851298625</v>
+        <v>570.6368243225426</v>
       </c>
       <c r="AC4" t="n">
-        <v>385.3687435315212</v>
+        <v>516.1760467030113</v>
       </c>
       <c r="AD4" t="n">
-        <v>311368.6219235081</v>
+        <v>417057.7583926312</v>
       </c>
       <c r="AE4" t="n">
-        <v>426028.2851298625</v>
+        <v>570636.8243225425</v>
       </c>
       <c r="AF4" t="n">
         <v>8.857645003339588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.46296296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>385368.7435315212</v>
+        <v>516176.0467030113</v>
       </c>
     </row>
     <row r="5">
@@ -50538,28 +50538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.9909387627081</v>
+        <v>391.19529068488</v>
       </c>
       <c r="AB5" t="n">
-        <v>403.6196164968687</v>
+        <v>535.2506550332478</v>
       </c>
       <c r="AC5" t="n">
-        <v>365.0987267820963</v>
+        <v>484.1670837458864</v>
       </c>
       <c r="AD5" t="n">
-        <v>294990.9387627081</v>
+        <v>391195.29068488</v>
       </c>
       <c r="AE5" t="n">
-        <v>403619.6164968687</v>
+        <v>535250.6550332478</v>
       </c>
       <c r="AF5" t="n">
         <v>9.16816209915019e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.76851851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>365098.7267820963</v>
+        <v>484167.0837458865</v>
       </c>
     </row>
     <row r="6">
@@ -50644,28 +50644,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>290.3143687844448</v>
+        <v>386.4172354801315</v>
       </c>
       <c r="AB6" t="n">
-        <v>397.2209271369024</v>
+        <v>528.7131091091924</v>
       </c>
       <c r="AC6" t="n">
-        <v>359.3107193540284</v>
+        <v>478.2534720293195</v>
       </c>
       <c r="AD6" t="n">
-        <v>290314.3687844448</v>
+        <v>386417.2354801315</v>
       </c>
       <c r="AE6" t="n">
-        <v>397220.9271369025</v>
+        <v>528713.1091091924</v>
       </c>
       <c r="AF6" t="n">
         <v>9.398975109349295e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.28240740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>359310.7193540284</v>
+        <v>478253.4720293195</v>
       </c>
     </row>
     <row r="7">
@@ -50750,28 +50750,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>287.5343753818579</v>
+        <v>374.085137722889</v>
       </c>
       <c r="AB7" t="n">
-        <v>393.41721751883</v>
+        <v>511.8397889039775</v>
       </c>
       <c r="AC7" t="n">
-        <v>355.8700304433647</v>
+        <v>462.9905178226368</v>
       </c>
       <c r="AD7" t="n">
-        <v>287534.3753818579</v>
+        <v>374085.137722889</v>
       </c>
       <c r="AE7" t="n">
-        <v>393417.21751883</v>
+        <v>511839.7889039775</v>
       </c>
       <c r="AF7" t="n">
         <v>9.525186294030759e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.02777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>355870.0304433648</v>
+        <v>462990.5178226368</v>
       </c>
     </row>
     <row r="8">
@@ -50856,28 +50856,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>275.4558009775981</v>
+        <v>371.6259874809892</v>
       </c>
       <c r="AB8" t="n">
-        <v>376.890779149827</v>
+        <v>508.4750710529584</v>
       </c>
       <c r="AC8" t="n">
-        <v>340.9208521572974</v>
+        <v>459.9469239209076</v>
       </c>
       <c r="AD8" t="n">
-        <v>275455.8009775981</v>
+        <v>371625.9874809892</v>
       </c>
       <c r="AE8" t="n">
-        <v>376890.779149827</v>
+        <v>508475.0710529584</v>
       </c>
       <c r="AF8" t="n">
         <v>9.628222223956816e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.81944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>340920.8521572974</v>
+        <v>459946.9239209077</v>
       </c>
     </row>
     <row r="9">
@@ -50962,28 +50962,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>273.750126808749</v>
+        <v>369.9203133121402</v>
       </c>
       <c r="AB9" t="n">
-        <v>374.5570005029741</v>
+        <v>506.1412924061055</v>
       </c>
       <c r="AC9" t="n">
-        <v>338.8098060690214</v>
+        <v>457.8358778326316</v>
       </c>
       <c r="AD9" t="n">
-        <v>273750.126808749</v>
+        <v>369920.3133121402</v>
       </c>
       <c r="AE9" t="n">
-        <v>374557.0005029741</v>
+        <v>506141.2924061056</v>
       </c>
       <c r="AF9" t="n">
         <v>9.69195417453418e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.70370370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>338809.8060690213</v>
+        <v>457835.8778326316</v>
       </c>
     </row>
     <row r="10">
@@ -51068,28 +51068,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>272.2687044533999</v>
+        <v>368.438890956791</v>
       </c>
       <c r="AB10" t="n">
-        <v>372.5300530806437</v>
+        <v>504.114344983775</v>
       </c>
       <c r="AC10" t="n">
-        <v>336.9763076638396</v>
+        <v>456.0023794274497</v>
       </c>
       <c r="AD10" t="n">
-        <v>272268.7044533999</v>
+        <v>368438.890956791</v>
       </c>
       <c r="AE10" t="n">
-        <v>372530.0530806437</v>
+        <v>504114.3449837751</v>
       </c>
       <c r="AF10" t="n">
         <v>9.732980639033616e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.62268518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>336976.3076638396</v>
+        <v>456002.3794274497</v>
       </c>
     </row>
     <row r="11">
@@ -51174,28 +51174,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>270.2851298545121</v>
+        <v>356.8017267767625</v>
       </c>
       <c r="AB11" t="n">
-        <v>369.8160388053104</v>
+        <v>488.1918635572101</v>
       </c>
       <c r="AC11" t="n">
-        <v>334.5213151018011</v>
+        <v>441.5995172808932</v>
       </c>
       <c r="AD11" t="n">
-        <v>270285.1298545122</v>
+        <v>356801.7267767625</v>
       </c>
       <c r="AE11" t="n">
-        <v>369816.0388053104</v>
+        <v>488191.8635572101</v>
       </c>
       <c r="AF11" t="n">
         <v>9.808300216988681e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.47222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>334521.3151018011</v>
+        <v>441599.5172808932</v>
       </c>
     </row>
     <row r="12">
@@ -51280,28 +51280,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>269.048805850876</v>
+        <v>355.5654027731263</v>
       </c>
       <c r="AB12" t="n">
-        <v>368.1244457607698</v>
+        <v>486.5002705126695</v>
       </c>
       <c r="AC12" t="n">
-        <v>332.9911653232656</v>
+        <v>440.0693675023577</v>
       </c>
       <c r="AD12" t="n">
-        <v>269048.805850876</v>
+        <v>355565.4027731263</v>
       </c>
       <c r="AE12" t="n">
-        <v>368124.4457607698</v>
+        <v>486500.2705126695</v>
       </c>
       <c r="AF12" t="n">
         <v>9.844159226035898e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>332991.1653232657</v>
+        <v>440069.3675023577</v>
       </c>
     </row>
     <row r="13">
@@ -51386,28 +51386,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>267.6092086147049</v>
+        <v>354.1258055369552</v>
       </c>
       <c r="AB13" t="n">
-        <v>366.1547253116927</v>
+        <v>484.5305500635924</v>
       </c>
       <c r="AC13" t="n">
-        <v>331.2094322293286</v>
+        <v>438.2876344084206</v>
       </c>
       <c r="AD13" t="n">
-        <v>267609.2086147049</v>
+        <v>354125.8055369552</v>
       </c>
       <c r="AE13" t="n">
-        <v>366154.7253116927</v>
+        <v>484530.5500635924</v>
       </c>
       <c r="AF13" t="n">
         <v>9.873284884039312e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>331209.4322293286</v>
+        <v>438287.6344084205</v>
       </c>
     </row>
     <row r="14">
@@ -51492,28 +51492,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>266.9313224887881</v>
+        <v>353.4479194110384</v>
       </c>
       <c r="AB14" t="n">
-        <v>365.2272116079881</v>
+        <v>483.6030363598878</v>
       </c>
       <c r="AC14" t="n">
-        <v>330.3704391317318</v>
+        <v>437.4486413108239</v>
       </c>
       <c r="AD14" t="n">
-        <v>266931.322488788</v>
+        <v>353447.9194110383</v>
       </c>
       <c r="AE14" t="n">
-        <v>365227.2116079881</v>
+        <v>483603.0363598878</v>
       </c>
       <c r="AF14" t="n">
         <v>9.875946906545e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH14" t="n">
-        <v>330370.4391317318</v>
+        <v>437448.6413108238</v>
       </c>
     </row>
     <row r="15">
@@ -51598,28 +51598,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>265.6201665551804</v>
+        <v>352.1367634774307</v>
       </c>
       <c r="AB15" t="n">
-        <v>363.4332302155087</v>
+        <v>481.8090549674084</v>
       </c>
       <c r="AC15" t="n">
-        <v>328.747672805482</v>
+        <v>435.8258749845741</v>
       </c>
       <c r="AD15" t="n">
-        <v>265620.1665551804</v>
+        <v>352136.7634774307</v>
       </c>
       <c r="AE15" t="n">
-        <v>363433.2302155087</v>
+        <v>481809.0549674084</v>
       </c>
       <c r="AF15" t="n">
         <v>9.916973371044436e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.27546296296296</v>
       </c>
       <c r="AH15" t="n">
-        <v>328747.672805482</v>
+        <v>435825.874984574</v>
       </c>
     </row>
     <row r="16">
@@ -51704,28 +51704,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>265.197938752189</v>
+        <v>351.7145356744393</v>
       </c>
       <c r="AB16" t="n">
-        <v>362.85551950808</v>
+        <v>481.2313442599797</v>
       </c>
       <c r="AC16" t="n">
-        <v>328.2250979971482</v>
+        <v>435.3033001762402</v>
       </c>
       <c r="AD16" t="n">
-        <v>265197.938752189</v>
+        <v>351714.5356744393</v>
       </c>
       <c r="AE16" t="n">
-        <v>362855.51950808</v>
+        <v>481231.3442599797</v>
       </c>
       <c r="AF16" t="n">
         <v>9.904915974989258e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.29861111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>328225.0979971482</v>
+        <v>435303.3001762402</v>
       </c>
     </row>
     <row r="17">
@@ -51810,28 +51810,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>265.5814881151984</v>
+        <v>352.0980850374487</v>
       </c>
       <c r="AB17" t="n">
-        <v>363.380308667553</v>
+        <v>481.7561334194527</v>
       </c>
       <c r="AC17" t="n">
-        <v>328.6998020157873</v>
+        <v>435.7780041948793</v>
       </c>
       <c r="AD17" t="n">
-        <v>265581.4881151984</v>
+        <v>352098.0850374487</v>
       </c>
       <c r="AE17" t="n">
-        <v>363380.308667553</v>
+        <v>481756.1334194527</v>
       </c>
       <c r="AF17" t="n">
         <v>9.903350079397676e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.29861111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>328699.8020157873</v>
+        <v>435778.0041948793</v>
       </c>
     </row>
   </sheetData>
@@ -52107,28 +52107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>561.5083991330432</v>
+        <v>717.289659820402</v>
       </c>
       <c r="AB2" t="n">
-        <v>768.2805636960801</v>
+        <v>981.4273571527032</v>
       </c>
       <c r="AC2" t="n">
-        <v>694.956944985469</v>
+        <v>887.7613076279955</v>
       </c>
       <c r="AD2" t="n">
-        <v>561508.3991330432</v>
+        <v>717289.659820402</v>
       </c>
       <c r="AE2" t="n">
-        <v>768280.5636960801</v>
+        <v>981427.3571527032</v>
       </c>
       <c r="AF2" t="n">
         <v>5.171456940038402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>694956.944985469</v>
+        <v>887761.3076279955</v>
       </c>
     </row>
     <row r="3">
@@ -52213,28 +52213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.3417628754319</v>
+        <v>504.1777083909511</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.9780882787123</v>
+        <v>689.8381833711796</v>
       </c>
       <c r="AC3" t="n">
-        <v>479.39772336231</v>
+        <v>624.0009953442049</v>
       </c>
       <c r="AD3" t="n">
-        <v>387341.7628754319</v>
+        <v>504177.708390951</v>
       </c>
       <c r="AE3" t="n">
-        <v>529978.0882787124</v>
+        <v>689838.1833711796</v>
       </c>
       <c r="AF3" t="n">
         <v>6.95456182275377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.55324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>479397.72336231</v>
+        <v>624000.9953442048</v>
       </c>
     </row>
     <row r="4">
@@ -52319,28 +52319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>346.8523216253117</v>
+        <v>453.951938347871</v>
       </c>
       <c r="AB4" t="n">
-        <v>474.5786484922185</v>
+        <v>621.1170689936467</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.285528355437</v>
+        <v>561.8385276721738</v>
       </c>
       <c r="AD4" t="n">
-        <v>346852.3216253117</v>
+        <v>453951.9383478709</v>
       </c>
       <c r="AE4" t="n">
-        <v>474578.6484922185</v>
+        <v>621117.0689936468</v>
       </c>
       <c r="AF4" t="n">
         <v>7.615620861957562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.50462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>429285.528355437</v>
+        <v>561838.5276721738</v>
       </c>
     </row>
     <row r="5">
@@ -52425,28 +52425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.9816763059036</v>
+        <v>435.047127609682</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.7589990520888</v>
+        <v>595.2506729202694</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.9300700197677</v>
+        <v>538.4407841363246</v>
       </c>
       <c r="AD5" t="n">
-        <v>327981.6763059036</v>
+        <v>435047.127609682</v>
       </c>
       <c r="AE5" t="n">
-        <v>448758.9990520888</v>
+        <v>595250.6729202694</v>
       </c>
       <c r="AF5" t="n">
         <v>7.948697269981048e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.60185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>405930.0700197677</v>
+        <v>538440.7841363247</v>
       </c>
     </row>
     <row r="6">
@@ -52531,28 +52531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>321.8724359832624</v>
+        <v>419.1684041051572</v>
       </c>
       <c r="AB6" t="n">
-        <v>440.4000669219898</v>
+        <v>573.5247029015378</v>
       </c>
       <c r="AC6" t="n">
-        <v>398.3689026403304</v>
+        <v>518.7883102035903</v>
       </c>
       <c r="AD6" t="n">
-        <v>321872.4359832624</v>
+        <v>419168.4041051572</v>
       </c>
       <c r="AE6" t="n">
-        <v>440400.0669219898</v>
+        <v>573524.7029015378</v>
       </c>
       <c r="AF6" t="n">
         <v>8.188670756815303e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>398368.9026403304</v>
+        <v>518788.3102035903</v>
       </c>
     </row>
     <row r="7">
@@ -52637,28 +52637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>308.6737990988831</v>
+        <v>406.0370870284823</v>
       </c>
       <c r="AB7" t="n">
-        <v>422.3411096540181</v>
+        <v>555.5578555644075</v>
       </c>
       <c r="AC7" t="n">
-        <v>382.0334669081081</v>
+        <v>502.5361935596871</v>
       </c>
       <c r="AD7" t="n">
-        <v>308673.7990988831</v>
+        <v>406037.0870284823</v>
       </c>
       <c r="AE7" t="n">
-        <v>422341.1096540181</v>
+        <v>555557.8555644075</v>
       </c>
       <c r="AF7" t="n">
         <v>8.316581153099597e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>382033.4669081081</v>
+        <v>502536.1935596871</v>
       </c>
     </row>
     <row r="8">
@@ -52743,28 +52743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>305.5503612159371</v>
+        <v>402.8121639190512</v>
       </c>
       <c r="AB8" t="n">
-        <v>418.0674841462173</v>
+        <v>551.1453734925174</v>
       </c>
       <c r="AC8" t="n">
-        <v>378.1677102207007</v>
+        <v>498.5448325837808</v>
       </c>
       <c r="AD8" t="n">
-        <v>305550.3612159371</v>
+        <v>402812.1639190512</v>
       </c>
       <c r="AE8" t="n">
-        <v>418067.4841462173</v>
+        <v>551145.3734925174</v>
       </c>
       <c r="AF8" t="n">
         <v>8.442369142365902e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.39814814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>378167.7102207007</v>
+        <v>498544.8325837807</v>
       </c>
     </row>
     <row r="9">
@@ -52849,28 +52849,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>303.4318933280825</v>
+        <v>400.6936960311966</v>
       </c>
       <c r="AB9" t="n">
-        <v>415.1689029218475</v>
+        <v>548.2467922681476</v>
       </c>
       <c r="AC9" t="n">
-        <v>375.5457655202005</v>
+        <v>495.9228878832805</v>
       </c>
       <c r="AD9" t="n">
-        <v>303431.8933280825</v>
+        <v>400693.6960311966</v>
       </c>
       <c r="AE9" t="n">
-        <v>415168.9029218475</v>
+        <v>548246.7922681476</v>
       </c>
       <c r="AF9" t="n">
         <v>8.520332226826795e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.22453703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>375545.7655202005</v>
+        <v>495922.8878832805</v>
       </c>
     </row>
     <row r="10">
@@ -52955,28 +52955,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>301.8401985671256</v>
+        <v>389.4340033148413</v>
       </c>
       <c r="AB10" t="n">
-        <v>412.9910759292893</v>
+        <v>532.8407839510461</v>
       </c>
       <c r="AC10" t="n">
-        <v>373.5757872792127</v>
+        <v>481.9872073774947</v>
       </c>
       <c r="AD10" t="n">
-        <v>301840.1985671256</v>
+        <v>389434.0033148413</v>
       </c>
       <c r="AE10" t="n">
-        <v>412991.0759292893</v>
+        <v>532840.7839510461</v>
       </c>
       <c r="AF10" t="n">
         <v>8.576646759704172e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.09722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>373575.7872792127</v>
+        <v>481987.2073774947</v>
       </c>
     </row>
     <row r="11">
@@ -53061,28 +53061,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>300.5609356234401</v>
+        <v>388.1547403711558</v>
       </c>
       <c r="AB11" t="n">
-        <v>411.2407319326409</v>
+        <v>531.0904399543975</v>
       </c>
       <c r="AC11" t="n">
-        <v>371.9924936569811</v>
+        <v>480.4039137552631</v>
       </c>
       <c r="AD11" t="n">
-        <v>300560.9356234401</v>
+        <v>388154.7403711557</v>
       </c>
       <c r="AE11" t="n">
-        <v>411240.7319326409</v>
+        <v>531090.4399543975</v>
       </c>
       <c r="AF11" t="n">
         <v>8.607633902166849e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.02777777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>371992.4936569812</v>
+        <v>480403.9137552631</v>
       </c>
     </row>
     <row r="12">
@@ -53167,28 +53167,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>288.7025187884389</v>
+        <v>386.0316412992573</v>
       </c>
       <c r="AB12" t="n">
-        <v>395.015522862564</v>
+        <v>528.1855221397057</v>
       </c>
       <c r="AC12" t="n">
-        <v>357.3157957683285</v>
+        <v>477.7762372197275</v>
       </c>
       <c r="AD12" t="n">
-        <v>288702.5187884389</v>
+        <v>386031.6412992573</v>
       </c>
       <c r="AE12" t="n">
-        <v>395015.522862564</v>
+        <v>528185.5221397056</v>
       </c>
       <c r="AF12" t="n">
         <v>8.688992837856529e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.8425925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>357315.7957683285</v>
+        <v>477776.2372197275</v>
       </c>
     </row>
     <row r="13">
@@ -53273,28 +53273,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>287.5318228890183</v>
+        <v>384.8609453998367</v>
       </c>
       <c r="AB13" t="n">
-        <v>393.4137250855188</v>
+        <v>526.5837243626604</v>
       </c>
       <c r="AC13" t="n">
-        <v>355.8668713229872</v>
+        <v>476.3273127743863</v>
       </c>
       <c r="AD13" t="n">
-        <v>287531.8228890183</v>
+        <v>384860.9453998368</v>
       </c>
       <c r="AE13" t="n">
-        <v>393413.7250855188</v>
+        <v>526583.7243626604</v>
       </c>
       <c r="AF13" t="n">
         <v>8.719131017512011e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.78472222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>355866.8713229871</v>
+        <v>476327.3127743863</v>
       </c>
     </row>
     <row r="14">
@@ -53379,28 +53379,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>286.4217907802339</v>
+        <v>383.7509132910523</v>
       </c>
       <c r="AB14" t="n">
-        <v>391.8949301831195</v>
+        <v>525.0649294602612</v>
       </c>
       <c r="AC14" t="n">
-        <v>354.4930280744309</v>
+        <v>474.95346952583</v>
       </c>
       <c r="AD14" t="n">
-        <v>286421.7907802339</v>
+        <v>383750.9132910523</v>
       </c>
       <c r="AE14" t="n">
-        <v>391894.9301831195</v>
+        <v>525064.9294602611</v>
       </c>
       <c r="AF14" t="n">
         <v>8.748420234360295e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>354493.0280744309</v>
+        <v>474953.4695258299</v>
       </c>
     </row>
     <row r="15">
@@ -53485,28 +53485,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>285.8184172354341</v>
+        <v>383.1475397462524</v>
       </c>
       <c r="AB15" t="n">
-        <v>391.0693678801623</v>
+        <v>524.2393671573039</v>
       </c>
       <c r="AC15" t="n">
-        <v>353.7462562789839</v>
+        <v>474.206697730383</v>
       </c>
       <c r="AD15" t="n">
-        <v>285818.4172354341</v>
+        <v>383147.5397462525</v>
       </c>
       <c r="AE15" t="n">
-        <v>391069.3678801623</v>
+        <v>524239.367157304</v>
       </c>
       <c r="AF15" t="n">
         <v>8.749552184769889e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.71527777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>353746.2562789839</v>
+        <v>474206.697730383</v>
       </c>
     </row>
     <row r="16">
@@ -53591,28 +53591,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>284.9185717247164</v>
+        <v>382.2476942355348</v>
       </c>
       <c r="AB16" t="n">
-        <v>389.8381595540162</v>
+        <v>523.0081588311577</v>
       </c>
       <c r="AC16" t="n">
-        <v>352.6325527474734</v>
+        <v>473.0929941988725</v>
       </c>
       <c r="AD16" t="n">
-        <v>284918.5717247164</v>
+        <v>382247.6942355348</v>
       </c>
       <c r="AE16" t="n">
-        <v>389838.1595540162</v>
+        <v>523008.1588311577</v>
       </c>
       <c r="AF16" t="n">
         <v>8.782661734250559e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>352632.5527474734</v>
+        <v>473092.9941988725</v>
       </c>
     </row>
     <row r="17">
@@ -53697,28 +53697,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>283.848720228219</v>
+        <v>381.1778427390374</v>
       </c>
       <c r="AB17" t="n">
-        <v>388.3743415379915</v>
+        <v>521.5443408151331</v>
       </c>
       <c r="AC17" t="n">
-        <v>351.3084394684166</v>
+        <v>471.7688809198157</v>
       </c>
       <c r="AD17" t="n">
-        <v>283848.720228219</v>
+        <v>381177.8427390374</v>
       </c>
       <c r="AE17" t="n">
-        <v>388374.3415379915</v>
+        <v>521544.3408151331</v>
       </c>
       <c r="AF17" t="n">
         <v>8.784642647467352e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>351308.4394684166</v>
+        <v>471768.8809198157</v>
       </c>
     </row>
     <row r="18">
@@ -53803,28 +53803,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>282.8974607677814</v>
+        <v>380.2265832785997</v>
       </c>
       <c r="AB18" t="n">
-        <v>387.0727863776152</v>
+        <v>520.2427856547567</v>
       </c>
       <c r="AC18" t="n">
-        <v>350.1311029058024</v>
+        <v>470.5915443572015</v>
       </c>
       <c r="AD18" t="n">
-        <v>282897.4607677814</v>
+        <v>380226.5832785997</v>
       </c>
       <c r="AE18" t="n">
-        <v>387072.7863776152</v>
+        <v>520242.7856547567</v>
       </c>
       <c r="AF18" t="n">
         <v>8.826524812622386e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.55324074074074</v>
       </c>
       <c r="AH18" t="n">
-        <v>350131.1029058024</v>
+        <v>470591.5443572015</v>
       </c>
     </row>
     <row r="19">
@@ -53909,28 +53909,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>281.945825788657</v>
+        <v>379.2749482994753</v>
       </c>
       <c r="AB19" t="n">
-        <v>385.7707174160049</v>
+        <v>518.9407166931466</v>
       </c>
       <c r="AC19" t="n">
-        <v>348.953301578423</v>
+        <v>469.4137430298221</v>
       </c>
       <c r="AD19" t="n">
-        <v>281945.8257886569</v>
+        <v>379274.9482994753</v>
       </c>
       <c r="AE19" t="n">
-        <v>385770.7174160049</v>
+        <v>518940.7166931465</v>
       </c>
       <c r="AF19" t="n">
         <v>8.816761740339625e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.57638888888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>348953.301578423</v>
+        <v>469413.7430298221</v>
       </c>
     </row>
     <row r="20">
@@ -54015,28 +54015,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>281.3057105712789</v>
+        <v>378.5333478556121</v>
       </c>
       <c r="AB20" t="n">
-        <v>384.8948835356979</v>
+        <v>517.9260262487503</v>
       </c>
       <c r="AC20" t="n">
-        <v>348.161056054412</v>
+        <v>468.4958932173121</v>
       </c>
       <c r="AD20" t="n">
-        <v>281305.7105712789</v>
+        <v>378533.3478556121</v>
       </c>
       <c r="AE20" t="n">
-        <v>384894.8835356979</v>
+        <v>517926.0262487503</v>
       </c>
       <c r="AF20" t="n">
         <v>8.852559672043083e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.49537037037037</v>
       </c>
       <c r="AH20" t="n">
-        <v>348161.056054412</v>
+        <v>468495.8932173121</v>
       </c>
     </row>
     <row r="21">
@@ -54121,28 +54121,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>280.5266426681993</v>
+        <v>368.0862819971342</v>
       </c>
       <c r="AB21" t="n">
-        <v>383.8289284606543</v>
+        <v>503.6318898491633</v>
       </c>
       <c r="AC21" t="n">
-        <v>347.1968342356532</v>
+        <v>455.5659691337552</v>
       </c>
       <c r="AD21" t="n">
-        <v>280526.6426681993</v>
+        <v>368086.2819971342</v>
       </c>
       <c r="AE21" t="n">
-        <v>383828.9284606543</v>
+        <v>503631.8898491632</v>
       </c>
       <c r="AF21" t="n">
         <v>8.863313200934241e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18.47222222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>347196.8342356532</v>
+        <v>455565.9691337552</v>
       </c>
     </row>
     <row r="22">
@@ -54227,28 +54227,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>279.6243906091242</v>
+        <v>376.8520278934574</v>
       </c>
       <c r="AB22" t="n">
-        <v>382.5944273888762</v>
+        <v>515.6255701019286</v>
       </c>
       <c r="AC22" t="n">
-        <v>346.0801522135325</v>
+        <v>466.4149893764326</v>
       </c>
       <c r="AD22" t="n">
-        <v>279624.3906091243</v>
+        <v>376852.0278934574</v>
       </c>
       <c r="AE22" t="n">
-        <v>382594.4273888762</v>
+        <v>515625.5701019285</v>
       </c>
       <c r="AF22" t="n">
         <v>8.859351374500659e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>18.4837962962963</v>
       </c>
       <c r="AH22" t="n">
-        <v>346080.1522135325</v>
+        <v>466414.9893764326</v>
       </c>
     </row>
     <row r="23">
@@ -54333,28 +54333,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>278.7870247180584</v>
+        <v>366.3466640469932</v>
       </c>
       <c r="AB23" t="n">
-        <v>381.4487064347441</v>
+        <v>501.2516678232531</v>
       </c>
       <c r="AC23" t="n">
-        <v>345.0437772592332</v>
+        <v>453.4129121573353</v>
       </c>
       <c r="AD23" t="n">
-        <v>278787.0247180584</v>
+        <v>366346.6640469932</v>
       </c>
       <c r="AE23" t="n">
-        <v>381448.7064347441</v>
+        <v>501251.6678232531</v>
       </c>
       <c r="AF23" t="n">
         <v>8.894583330999318e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH23" t="n">
-        <v>345043.7772592332</v>
+        <v>453412.9121573353</v>
       </c>
     </row>
     <row r="24">
@@ -54439,28 +54439,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>279.2261018785688</v>
+        <v>366.7857412075036</v>
       </c>
       <c r="AB24" t="n">
-        <v>382.0494711764716</v>
+        <v>501.8524325649806</v>
       </c>
       <c r="AC24" t="n">
-        <v>345.5872058571889</v>
+        <v>453.9563407552909</v>
       </c>
       <c r="AD24" t="n">
-        <v>279226.1018785688</v>
+        <v>366785.7412075037</v>
       </c>
       <c r="AE24" t="n">
-        <v>382049.4711764716</v>
+        <v>501852.4325649806</v>
       </c>
       <c r="AF24" t="n">
         <v>8.892177936378928e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH24" t="n">
-        <v>345587.2058571889</v>
+        <v>453956.3407552909</v>
       </c>
     </row>
   </sheetData>
@@ -54736,28 +54736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.4713665043915</v>
+        <v>306.6665748552803</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.185673693853</v>
+        <v>419.594736891437</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.9181286958029</v>
+        <v>379.5492041074295</v>
       </c>
       <c r="AD2" t="n">
-        <v>216471.3665043915</v>
+        <v>306666.5748552803</v>
       </c>
       <c r="AE2" t="n">
-        <v>296185.673693853</v>
+        <v>419594.736891437</v>
       </c>
       <c r="AF2" t="n">
         <v>2.066029799962959e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.23611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>267918.1286958029</v>
+        <v>379549.2041074295</v>
       </c>
     </row>
   </sheetData>
@@ -55033,28 +55033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.3996962581014</v>
+        <v>457.7169905842758</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.2228582626067</v>
+        <v>626.2685795658778</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.250010035458</v>
+        <v>566.4983853055815</v>
       </c>
       <c r="AD2" t="n">
-        <v>344399.6962581014</v>
+        <v>457716.9905842758</v>
       </c>
       <c r="AE2" t="n">
-        <v>471222.8582626067</v>
+        <v>626268.5795658778</v>
       </c>
       <c r="AF2" t="n">
         <v>9.117952081746559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>426250.010035458</v>
+        <v>566498.3853055815</v>
       </c>
     </row>
     <row r="3">
@@ -55139,28 +55139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.5291648892647</v>
+        <v>380.8929236867056</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.0418441761068</v>
+        <v>521.1545019979912</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.6259208021226</v>
+        <v>471.4162477722397</v>
       </c>
       <c r="AD3" t="n">
-        <v>286529.1648892647</v>
+        <v>380892.9236867056</v>
       </c>
       <c r="AE3" t="n">
-        <v>392041.8441761069</v>
+        <v>521154.5019979912</v>
       </c>
       <c r="AF3" t="n">
         <v>1.072229096065002e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.19675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>354625.9208021226</v>
+        <v>471416.2477722397</v>
       </c>
     </row>
     <row r="4">
@@ -55245,28 +55245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.6359501810036</v>
+        <v>362.9655435596637</v>
       </c>
       <c r="AB4" t="n">
-        <v>367.5595584193437</v>
+        <v>496.6254696079803</v>
       </c>
       <c r="AC4" t="n">
-        <v>332.480190036881</v>
+        <v>449.2282318068183</v>
       </c>
       <c r="AD4" t="n">
-        <v>268635.9501810037</v>
+        <v>362965.5435596638</v>
       </c>
       <c r="AE4" t="n">
-        <v>367559.5584193437</v>
+        <v>496625.4696079803</v>
       </c>
       <c r="AF4" t="n">
         <v>1.129325070864191e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.17824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>332480.190036881</v>
+        <v>449228.2318068183</v>
       </c>
     </row>
     <row r="5">
@@ -55351,28 +55351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>254.6242655120174</v>
+        <v>349.0211786983851</v>
       </c>
       <c r="AB5" t="n">
-        <v>348.3881533031716</v>
+        <v>477.5461744228186</v>
       </c>
       <c r="AC5" t="n">
-        <v>315.138476917865</v>
+        <v>431.9698377761694</v>
       </c>
       <c r="AD5" t="n">
-        <v>254624.2655120174</v>
+        <v>349021.1786983851</v>
       </c>
       <c r="AE5" t="n">
-        <v>348388.1533031716</v>
+        <v>477546.1744228186</v>
       </c>
       <c r="AF5" t="n">
         <v>1.157844987479715e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.70370370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>315138.476917865</v>
+        <v>431969.8377761694</v>
       </c>
     </row>
     <row r="6">
@@ -55457,28 +55457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>251.5676825588513</v>
+        <v>336.4883334957807</v>
       </c>
       <c r="AB6" t="n">
-        <v>344.2060016597288</v>
+        <v>460.3981827065074</v>
       </c>
       <c r="AC6" t="n">
-        <v>311.3554639575844</v>
+        <v>416.4584263219054</v>
       </c>
       <c r="AD6" t="n">
-        <v>251567.6825588513</v>
+        <v>336488.3334957807</v>
       </c>
       <c r="AE6" t="n">
-        <v>344206.0016597288</v>
+        <v>460398.1827065074</v>
       </c>
       <c r="AF6" t="n">
         <v>1.174818454914282e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH6" t="n">
-        <v>311355.4639575844</v>
+        <v>416458.4263219054</v>
       </c>
     </row>
     <row r="7">
@@ -55563,28 +55563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>249.3112125387949</v>
+        <v>334.2318634757244</v>
       </c>
       <c r="AB7" t="n">
-        <v>341.1185998298578</v>
+        <v>457.3107808766348</v>
       </c>
       <c r="AC7" t="n">
-        <v>308.5627194251596</v>
+        <v>413.6656817894802</v>
       </c>
       <c r="AD7" t="n">
-        <v>249311.2125387949</v>
+        <v>334231.8634757244</v>
       </c>
       <c r="AE7" t="n">
-        <v>341118.5998298578</v>
+        <v>457310.7808766348</v>
       </c>
       <c r="AF7" t="n">
         <v>1.185691205277549e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>308562.7194251596</v>
+        <v>413665.6817894801</v>
       </c>
     </row>
     <row r="8">
@@ -55669,28 +55669,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>247.2637890894193</v>
+        <v>332.1844400263487</v>
       </c>
       <c r="AB8" t="n">
-        <v>338.3172247404758</v>
+        <v>454.5094057872514</v>
       </c>
       <c r="AC8" t="n">
-        <v>306.0287036425527</v>
+        <v>411.1316660068728</v>
       </c>
       <c r="AD8" t="n">
-        <v>247263.7890894193</v>
+        <v>332184.4400263487</v>
       </c>
       <c r="AE8" t="n">
-        <v>338317.2247404758</v>
+        <v>454509.4057872514</v>
       </c>
       <c r="AF8" t="n">
         <v>1.19306446456004e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.15972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>306028.7036425527</v>
+        <v>411131.6660068728</v>
       </c>
     </row>
     <row r="9">
@@ -55775,28 +55775,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>246.5073783297045</v>
+        <v>331.4280292666339</v>
       </c>
       <c r="AB9" t="n">
-        <v>337.2822701685469</v>
+        <v>453.474451215322</v>
       </c>
       <c r="AC9" t="n">
-        <v>305.0925236824006</v>
+        <v>410.1954860467205</v>
       </c>
       <c r="AD9" t="n">
-        <v>246507.3783297045</v>
+        <v>331428.0292666339</v>
       </c>
       <c r="AE9" t="n">
-        <v>337282.2701685469</v>
+        <v>453474.451215322</v>
       </c>
       <c r="AF9" t="n">
         <v>1.196320675512206e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.10185185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>305092.5236824006</v>
+        <v>410195.4860467205</v>
       </c>
     </row>
   </sheetData>
@@ -56072,28 +56072,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>413.3561189396953</v>
+        <v>537.5031224705793</v>
       </c>
       <c r="AB2" t="n">
-        <v>565.5720779182285</v>
+        <v>735.4354851284338</v>
       </c>
       <c r="AC2" t="n">
-        <v>511.5946725871087</v>
+        <v>665.2465546179617</v>
       </c>
       <c r="AD2" t="n">
-        <v>413356.1189396953</v>
+        <v>537503.1224705793</v>
       </c>
       <c r="AE2" t="n">
-        <v>565572.0779182285</v>
+        <v>735435.4851284338</v>
       </c>
       <c r="AF2" t="n">
         <v>7.387275900112401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>511594.6725871087</v>
+        <v>665246.5546179616</v>
       </c>
     </row>
     <row r="3">
@@ -56178,28 +56178,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.6379276612889</v>
+        <v>424.6408698751478</v>
       </c>
       <c r="AB3" t="n">
-        <v>437.342714056316</v>
+        <v>581.0123719961895</v>
       </c>
       <c r="AC3" t="n">
-        <v>395.6033392411347</v>
+        <v>525.5613666688581</v>
       </c>
       <c r="AD3" t="n">
-        <v>319637.9276612889</v>
+        <v>424640.8698751478</v>
       </c>
       <c r="AE3" t="n">
-        <v>437342.7140563159</v>
+        <v>581012.3719961895</v>
       </c>
       <c r="AF3" t="n">
         <v>9.07045901540238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.26157407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>395603.3392411347</v>
+        <v>525561.3666688581</v>
       </c>
     </row>
     <row r="4">
@@ -56284,28 +56284,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.9584872235248</v>
+        <v>394.4406469070423</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.0481913368428</v>
+        <v>539.691094591422</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.009206058396</v>
+        <v>488.1837339848245</v>
       </c>
       <c r="AD4" t="n">
-        <v>298958.4872235248</v>
+        <v>394440.6469070423</v>
       </c>
       <c r="AE4" t="n">
-        <v>409048.1913368428</v>
+        <v>539691.094591422</v>
       </c>
       <c r="AF4" t="n">
         <v>9.637518924454137e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.01157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>370009.206058396</v>
+        <v>488183.7339848245</v>
       </c>
     </row>
     <row r="5">
@@ -56390,28 +56390,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>282.9872620754467</v>
+        <v>378.4352563401834</v>
       </c>
       <c r="AB5" t="n">
-        <v>387.195656488517</v>
+        <v>517.7918131098484</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.2422464657691</v>
+        <v>468.3744891920177</v>
       </c>
       <c r="AD5" t="n">
-        <v>282987.2620754467</v>
+        <v>378435.2563401834</v>
       </c>
       <c r="AE5" t="n">
-        <v>387195.6564885171</v>
+        <v>517791.8131098484</v>
       </c>
       <c r="AF5" t="n">
         <v>9.97612184399371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.3287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>350242.2464657691</v>
+        <v>468374.4891920178</v>
       </c>
     </row>
     <row r="6">
@@ -56496,28 +56496,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>269.7593164422007</v>
+        <v>365.2746305146418</v>
       </c>
       <c r="AB6" t="n">
-        <v>369.0965976973353</v>
+        <v>499.7848642495081</v>
       </c>
       <c r="AC6" t="n">
-        <v>333.8705364434292</v>
+        <v>452.0860982579969</v>
       </c>
       <c r="AD6" t="n">
-        <v>269759.3164422007</v>
+        <v>365274.6305146418</v>
       </c>
       <c r="AE6" t="n">
-        <v>369096.5976973353</v>
+        <v>499784.8642495081</v>
       </c>
       <c r="AF6" t="n">
         <v>1.016641935093967e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.96990740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>333870.5364434292</v>
+        <v>452086.0982579968</v>
       </c>
     </row>
     <row r="7">
@@ -56602,28 +56602,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>266.6137422036602</v>
+        <v>362.1290562761013</v>
       </c>
       <c r="AB7" t="n">
-        <v>364.7926842512229</v>
+        <v>495.4809508033957</v>
       </c>
       <c r="AC7" t="n">
-        <v>329.9773824560333</v>
+        <v>448.192944270601</v>
       </c>
       <c r="AD7" t="n">
-        <v>266613.7422036602</v>
+        <v>362129.0562761013</v>
       </c>
       <c r="AE7" t="n">
-        <v>364792.6842512229</v>
+        <v>495480.9508033957</v>
       </c>
       <c r="AF7" t="n">
         <v>1.031772419884417e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.69212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>329977.3824560333</v>
+        <v>448192.944270601</v>
       </c>
     </row>
     <row r="8">
@@ -56708,28 +56708,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>265.0141496512662</v>
+        <v>360.5294637237072</v>
       </c>
       <c r="AB8" t="n">
-        <v>362.6040511519944</v>
+        <v>493.2923177041672</v>
       </c>
       <c r="AC8" t="n">
-        <v>327.9976294280293</v>
+        <v>446.213191242597</v>
       </c>
       <c r="AD8" t="n">
-        <v>265014.1496512662</v>
+        <v>360529.4637237072</v>
       </c>
       <c r="AE8" t="n">
-        <v>362604.0511519944</v>
+        <v>493292.3177041672</v>
       </c>
       <c r="AF8" t="n">
         <v>1.038104561096279e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.57638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>327997.6294280293</v>
+        <v>446213.191242597</v>
       </c>
     </row>
     <row r="9">
@@ -56814,28 +56814,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>263.2725450552139</v>
+        <v>349.1997567896092</v>
       </c>
       <c r="AB9" t="n">
-        <v>360.2211109095036</v>
+        <v>477.7905128455408</v>
       </c>
       <c r="AC9" t="n">
-        <v>325.8421136578042</v>
+        <v>432.1908568827581</v>
       </c>
       <c r="AD9" t="n">
-        <v>263272.5450552139</v>
+        <v>349199.7567896092</v>
       </c>
       <c r="AE9" t="n">
-        <v>360221.1109095037</v>
+        <v>477790.5128455408</v>
       </c>
       <c r="AF9" t="n">
         <v>1.044919944663783e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.46064814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>325842.1136578043</v>
+        <v>432190.8568827581</v>
       </c>
     </row>
     <row r="10">
@@ -56920,28 +56920,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>261.084810710131</v>
+        <v>347.0120224445263</v>
       </c>
       <c r="AB10" t="n">
-        <v>357.2277562625337</v>
+        <v>474.7971581985709</v>
       </c>
       <c r="AC10" t="n">
-        <v>323.1344405771414</v>
+        <v>429.4831838020953</v>
       </c>
       <c r="AD10" t="n">
-        <v>261084.810710131</v>
+        <v>347012.0224445263</v>
       </c>
       <c r="AE10" t="n">
-        <v>357227.7562625337</v>
+        <v>474797.1581985708</v>
       </c>
       <c r="AF10" t="n">
         <v>1.052818457649106e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.32175925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>323134.4405771415</v>
+        <v>429483.1838020953</v>
       </c>
     </row>
     <row r="11">
@@ -57026,28 +57026,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>259.8843259957479</v>
+        <v>345.8115377301432</v>
       </c>
       <c r="AB11" t="n">
-        <v>355.585200114667</v>
+        <v>473.1546020507041</v>
       </c>
       <c r="AC11" t="n">
-        <v>321.6486476826852</v>
+        <v>427.9973909076389</v>
       </c>
       <c r="AD11" t="n">
-        <v>259884.3259957479</v>
+        <v>345811.5377301432</v>
       </c>
       <c r="AE11" t="n">
-        <v>355585.2001146669</v>
+        <v>473154.6020507041</v>
       </c>
       <c r="AF11" t="n">
         <v>1.055817892959988e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>321648.6476826852</v>
+        <v>427997.3909076389</v>
       </c>
     </row>
     <row r="12">
@@ -57132,28 +57132,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>258.3520080006165</v>
+        <v>344.2792197350117</v>
       </c>
       <c r="AB12" t="n">
-        <v>353.4886150326292</v>
+        <v>471.0580169686663</v>
       </c>
       <c r="AC12" t="n">
-        <v>319.7521577383014</v>
+        <v>426.1009009632553</v>
       </c>
       <c r="AD12" t="n">
-        <v>258352.0080006165</v>
+        <v>344279.2197350117</v>
       </c>
       <c r="AE12" t="n">
-        <v>353488.6150326292</v>
+        <v>471058.0169686663</v>
       </c>
       <c r="AF12" t="n">
         <v>1.059867130629679e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.19444444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>319752.1577383014</v>
+        <v>426100.9009632553</v>
       </c>
     </row>
     <row r="13">
@@ -57238,28 +57238,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>258.1657925627586</v>
+        <v>344.0930042971539</v>
       </c>
       <c r="AB13" t="n">
-        <v>353.2338268553068</v>
+        <v>470.8032287913439</v>
       </c>
       <c r="AC13" t="n">
-        <v>319.5216861870252</v>
+        <v>425.870429411979</v>
       </c>
       <c r="AD13" t="n">
-        <v>258165.7925627586</v>
+        <v>344093.0042971539</v>
       </c>
       <c r="AE13" t="n">
-        <v>353233.8268553068</v>
+        <v>470803.2287913439</v>
       </c>
       <c r="AF13" t="n">
         <v>1.059083944742948e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.20601851851852</v>
       </c>
       <c r="AH13" t="n">
-        <v>319521.6861870252</v>
+        <v>425870.429411979</v>
       </c>
     </row>
     <row r="14">
@@ -57344,28 +57344,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>258.5816792388819</v>
+        <v>344.5088909732772</v>
       </c>
       <c r="AB14" t="n">
-        <v>353.8028613532038</v>
+        <v>471.372263289241</v>
       </c>
       <c r="AC14" t="n">
-        <v>320.0364128310879</v>
+        <v>426.3851560560417</v>
       </c>
       <c r="AD14" t="n">
-        <v>258581.6792388819</v>
+        <v>344508.8909732772</v>
       </c>
       <c r="AE14" t="n">
-        <v>353802.8613532038</v>
+        <v>471372.263289241</v>
       </c>
       <c r="AF14" t="n">
         <v>1.058833991800375e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.21759259259259</v>
       </c>
       <c r="AH14" t="n">
-        <v>320036.4128310879</v>
+        <v>426385.1560560417</v>
       </c>
     </row>
   </sheetData>
